--- a/FILTER.xlsx
+++ b/FILTER.xlsx
@@ -4,17 +4,26 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17925"/>
+    <workbookView windowHeight="17925" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="read me" sheetId="1" r:id="rId1"/>
+    <sheet name="OD" sheetId="2" r:id="rId2"/>
+    <sheet name="CL" sheetId="3" r:id="rId3"/>
+    <sheet name="Result" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1023" uniqueCount="402">
+  <si>
+    <t>1.Original data 能不能做成让我选择文件，默认打开那个文件的sheet1,然后默认只读取前5列，这样我之后可以改
+2.condition data 目前是一个条件，如果我将来想多条件，能不能把这块的code也带上，将来我要用的时候我再uncomment
+3.结果能不能问我是想生成在一个在这个excel里生成一个新sheet，还是选择一个地址新生成一个excel
+运行程序-选择文件-如果condition list为空，通知并退出-询问新文件地点，sheet还是新excel</t>
+  </si>
   <si>
     <t>A</t>
   </si>
@@ -31,9 +40,6 @@
     <t>E</t>
   </si>
   <si>
-    <t>index_column</t>
-  </si>
-  <si>
     <t>NXXXXX1</t>
   </si>
   <si>
@@ -55,1022 +61,1018 @@
     <t>XX11</t>
   </si>
   <si>
+    <t>XXX21</t>
+  </si>
+  <si>
+    <t>AXXXXX21</t>
+  </si>
+  <si>
+    <t>XX21</t>
+  </si>
+  <si>
+    <t>XXX31</t>
+  </si>
+  <si>
+    <t>AXXXXX31</t>
+  </si>
+  <si>
+    <t>XX31</t>
+  </si>
+  <si>
+    <t>XXX41</t>
+  </si>
+  <si>
+    <t>AXXXXX41</t>
+  </si>
+  <si>
+    <t>XX41</t>
+  </si>
+  <si>
+    <t>XXX51</t>
+  </si>
+  <si>
+    <t>AXXXXX51</t>
+  </si>
+  <si>
+    <t>XX51</t>
+  </si>
+  <si>
+    <t>XXX61</t>
+  </si>
+  <si>
+    <t>AXXXXX61</t>
+  </si>
+  <si>
+    <t>XX61</t>
+  </si>
+  <si>
+    <t>XXX71</t>
+  </si>
+  <si>
+    <t>AXXXXX71</t>
+  </si>
+  <si>
+    <t>XX71</t>
+  </si>
+  <si>
+    <t>XXX81</t>
+  </si>
+  <si>
+    <t>AXXXXX81</t>
+  </si>
+  <si>
+    <t>XX81</t>
+  </si>
+  <si>
+    <t>XXX91</t>
+  </si>
+  <si>
+    <t>AXXXXX91</t>
+  </si>
+  <si>
+    <t>XX91</t>
+  </si>
+  <si>
+    <t>XXX101</t>
+  </si>
+  <si>
+    <t>AXXXXX101</t>
+  </si>
+  <si>
+    <t>XX101</t>
+  </si>
+  <si>
+    <t>XXX111</t>
+  </si>
+  <si>
+    <t>AXXXXX111</t>
+  </si>
+  <si>
+    <t>XX111</t>
+  </si>
+  <si>
+    <t>XXX121</t>
+  </si>
+  <si>
+    <t>AXXXXX121</t>
+  </si>
+  <si>
+    <t>XX121</t>
+  </si>
+  <si>
+    <t>XXX131</t>
+  </si>
+  <si>
+    <t>AXXXXX131</t>
+  </si>
+  <si>
+    <t>XX131</t>
+  </si>
+  <si>
     <t>NXXXXX2</t>
   </si>
   <si>
-    <t>XXX21</t>
-  </si>
-  <si>
-    <t>AXXXXX21</t>
-  </si>
-  <si>
-    <t>XX21</t>
+    <t>XXX2</t>
+  </si>
+  <si>
+    <t>AXXXXX2</t>
+  </si>
+  <si>
+    <t>XX2</t>
+  </si>
+  <si>
+    <t>XXX12</t>
+  </si>
+  <si>
+    <t>AXXXXX12</t>
+  </si>
+  <si>
+    <t>XX12</t>
+  </si>
+  <si>
+    <t>XXX22</t>
+  </si>
+  <si>
+    <t>AXXXXX22</t>
+  </si>
+  <si>
+    <t>XX22</t>
+  </si>
+  <si>
+    <t>XXX32</t>
+  </si>
+  <si>
+    <t>AXXXXX32</t>
+  </si>
+  <si>
+    <t>XX32</t>
+  </si>
+  <si>
+    <t>XXX42</t>
+  </si>
+  <si>
+    <t>AXXXXX42</t>
+  </si>
+  <si>
+    <t>XX42</t>
+  </si>
+  <si>
+    <t>XXX52</t>
+  </si>
+  <si>
+    <t>AXXXXX52</t>
+  </si>
+  <si>
+    <t>XX52</t>
+  </si>
+  <si>
+    <t>XXX62</t>
+  </si>
+  <si>
+    <t>AXXXXX62</t>
+  </si>
+  <si>
+    <t>XX62</t>
+  </si>
+  <si>
+    <t>XXX72</t>
+  </si>
+  <si>
+    <t>AXXXXX72</t>
+  </si>
+  <si>
+    <t>XX72</t>
+  </si>
+  <si>
+    <t>XXX82</t>
+  </si>
+  <si>
+    <t>AXXXXX82</t>
+  </si>
+  <si>
+    <t>XX82</t>
+  </si>
+  <si>
+    <t>XXX92</t>
+  </si>
+  <si>
+    <t>AXXXXX92</t>
+  </si>
+  <si>
+    <t>XX92</t>
+  </si>
+  <si>
+    <t>XXX102</t>
+  </si>
+  <si>
+    <t>AXXXXX102</t>
+  </si>
+  <si>
+    <t>XX102</t>
+  </si>
+  <si>
+    <t>XXX112</t>
+  </si>
+  <si>
+    <t>AXXXXX112</t>
+  </si>
+  <si>
+    <t>XX112</t>
+  </si>
+  <si>
+    <t>XXX122</t>
+  </si>
+  <si>
+    <t>AXXXXX122</t>
+  </si>
+  <si>
+    <t>XX122</t>
+  </si>
+  <si>
+    <t>XXX132</t>
+  </si>
+  <si>
+    <t>AXXXXX132</t>
+  </si>
+  <si>
+    <t>XX132</t>
   </si>
   <si>
     <t>NXXXXX3</t>
   </si>
   <si>
-    <t>XXX31</t>
-  </si>
-  <si>
-    <t>AXXXXX31</t>
-  </si>
-  <si>
-    <t>XX31</t>
+    <t>XXX3</t>
+  </si>
+  <si>
+    <t>AXXXXX3</t>
+  </si>
+  <si>
+    <t>XX3</t>
+  </si>
+  <si>
+    <t>XXX13</t>
+  </si>
+  <si>
+    <t>AXXXXX13</t>
+  </si>
+  <si>
+    <t>XX13</t>
+  </si>
+  <si>
+    <t>XXX23</t>
+  </si>
+  <si>
+    <t>AXXXXX23</t>
+  </si>
+  <si>
+    <t>XX23</t>
+  </si>
+  <si>
+    <t>XXX33</t>
+  </si>
+  <si>
+    <t>AXXXXX33</t>
+  </si>
+  <si>
+    <t>XX33</t>
+  </si>
+  <si>
+    <t>XXX43</t>
+  </si>
+  <si>
+    <t>AXXXXX43</t>
+  </si>
+  <si>
+    <t>XX43</t>
+  </si>
+  <si>
+    <t>XXX53</t>
+  </si>
+  <si>
+    <t>AXXXXX53</t>
+  </si>
+  <si>
+    <t>XX53</t>
+  </si>
+  <si>
+    <t>XXX63</t>
+  </si>
+  <si>
+    <t>AXXXXX63</t>
+  </si>
+  <si>
+    <t>XX63</t>
+  </si>
+  <si>
+    <t>XXX73</t>
+  </si>
+  <si>
+    <t>AXXXXX73</t>
+  </si>
+  <si>
+    <t>XX73</t>
+  </si>
+  <si>
+    <t>XXX83</t>
+  </si>
+  <si>
+    <t>AXXXXX83</t>
+  </si>
+  <si>
+    <t>XX83</t>
+  </si>
+  <si>
+    <t>XXX93</t>
+  </si>
+  <si>
+    <t>AXXXXX93</t>
+  </si>
+  <si>
+    <t>XX93</t>
+  </si>
+  <si>
+    <t>XXX103</t>
+  </si>
+  <si>
+    <t>AXXXXX103</t>
+  </si>
+  <si>
+    <t>XX103</t>
+  </si>
+  <si>
+    <t>XXX113</t>
+  </si>
+  <si>
+    <t>AXXXXX113</t>
+  </si>
+  <si>
+    <t>XX113</t>
+  </si>
+  <si>
+    <t>XXX123</t>
+  </si>
+  <si>
+    <t>AXXXXX123</t>
+  </si>
+  <si>
+    <t>XX123</t>
+  </si>
+  <si>
+    <t>XXX133</t>
+  </si>
+  <si>
+    <t>AXXXXX133</t>
+  </si>
+  <si>
+    <t>XX133</t>
   </si>
   <si>
     <t>NXXXXX4</t>
   </si>
   <si>
-    <t>XXX41</t>
-  </si>
-  <si>
-    <t>AXXXXX41</t>
-  </si>
-  <si>
-    <t>XX41</t>
+    <t>XXX4</t>
+  </si>
+  <si>
+    <t>AXXXXX4</t>
+  </si>
+  <si>
+    <t>XX4</t>
+  </si>
+  <si>
+    <t>XXX14</t>
+  </si>
+  <si>
+    <t>AXXXXX14</t>
+  </si>
+  <si>
+    <t>XX14</t>
+  </si>
+  <si>
+    <t>XXX24</t>
+  </si>
+  <si>
+    <t>AXXXXX24</t>
+  </si>
+  <si>
+    <t>XX24</t>
+  </si>
+  <si>
+    <t>XXX34</t>
+  </si>
+  <si>
+    <t>AXXXXX34</t>
+  </si>
+  <si>
+    <t>XX34</t>
+  </si>
+  <si>
+    <t>XXX44</t>
+  </si>
+  <si>
+    <t>AXXXXX44</t>
+  </si>
+  <si>
+    <t>XX44</t>
+  </si>
+  <si>
+    <t>XXX54</t>
+  </si>
+  <si>
+    <t>AXXXXX54</t>
+  </si>
+  <si>
+    <t>XX54</t>
+  </si>
+  <si>
+    <t>XXX64</t>
+  </si>
+  <si>
+    <t>AXXXXX64</t>
+  </si>
+  <si>
+    <t>XX64</t>
+  </si>
+  <si>
+    <t>XXX74</t>
+  </si>
+  <si>
+    <t>AXXXXX74</t>
+  </si>
+  <si>
+    <t>XX74</t>
+  </si>
+  <si>
+    <t>XXX84</t>
+  </si>
+  <si>
+    <t>AXXXXX84</t>
+  </si>
+  <si>
+    <t>XX84</t>
+  </si>
+  <si>
+    <t>XXX94</t>
+  </si>
+  <si>
+    <t>AXXXXX94</t>
+  </si>
+  <si>
+    <t>XX94</t>
+  </si>
+  <si>
+    <t>XXX104</t>
+  </si>
+  <si>
+    <t>AXXXXX104</t>
+  </si>
+  <si>
+    <t>XX104</t>
+  </si>
+  <si>
+    <t>XXX114</t>
+  </si>
+  <si>
+    <t>AXXXXX114</t>
+  </si>
+  <si>
+    <t>XX114</t>
+  </si>
+  <si>
+    <t>XXX124</t>
+  </si>
+  <si>
+    <t>AXXXXX124</t>
+  </si>
+  <si>
+    <t>XX124</t>
+  </si>
+  <si>
+    <t>XXX134</t>
+  </si>
+  <si>
+    <t>AXXXXX134</t>
+  </si>
+  <si>
+    <t>XX134</t>
   </si>
   <si>
     <t>NXXXXX5</t>
   </si>
   <si>
-    <t>XXX51</t>
-  </si>
-  <si>
-    <t>AXXXXX51</t>
-  </si>
-  <si>
-    <t>XX51</t>
+    <t>XXX5</t>
+  </si>
+  <si>
+    <t>AXXXXX5</t>
+  </si>
+  <si>
+    <t>XX5</t>
+  </si>
+  <si>
+    <t>XXX15</t>
+  </si>
+  <si>
+    <t>AXXXXX15</t>
+  </si>
+  <si>
+    <t>XX15</t>
+  </si>
+  <si>
+    <t>XXX25</t>
+  </si>
+  <si>
+    <t>AXXXXX25</t>
+  </si>
+  <si>
+    <t>XX25</t>
+  </si>
+  <si>
+    <t>XXX35</t>
+  </si>
+  <si>
+    <t>AXXXXX35</t>
+  </si>
+  <si>
+    <t>XX35</t>
+  </si>
+  <si>
+    <t>XXX45</t>
+  </si>
+  <si>
+    <t>AXXXXX45</t>
+  </si>
+  <si>
+    <t>XX45</t>
+  </si>
+  <si>
+    <t>XXX55</t>
+  </si>
+  <si>
+    <t>AXXXXX55</t>
+  </si>
+  <si>
+    <t>XX55</t>
+  </si>
+  <si>
+    <t>XXX65</t>
+  </si>
+  <si>
+    <t>AXXXXX65</t>
+  </si>
+  <si>
+    <t>XX65</t>
+  </si>
+  <si>
+    <t>XXX75</t>
+  </si>
+  <si>
+    <t>AXXXXX75</t>
+  </si>
+  <si>
+    <t>XX75</t>
+  </si>
+  <si>
+    <t>XXX85</t>
+  </si>
+  <si>
+    <t>AXXXXX85</t>
+  </si>
+  <si>
+    <t>XX85</t>
+  </si>
+  <si>
+    <t>XXX95</t>
+  </si>
+  <si>
+    <t>AXXXXX95</t>
+  </si>
+  <si>
+    <t>XX95</t>
+  </si>
+  <si>
+    <t>XXX105</t>
+  </si>
+  <si>
+    <t>AXXXXX105</t>
+  </si>
+  <si>
+    <t>XX105</t>
+  </si>
+  <si>
+    <t>XXX115</t>
+  </si>
+  <si>
+    <t>AXXXXX115</t>
+  </si>
+  <si>
+    <t>XX115</t>
+  </si>
+  <si>
+    <t>XXX125</t>
+  </si>
+  <si>
+    <t>AXXXXX125</t>
+  </si>
+  <si>
+    <t>XX125</t>
+  </si>
+  <si>
+    <t>XXX135</t>
+  </si>
+  <si>
+    <t>AXXXXX135</t>
+  </si>
+  <si>
+    <t>XX135</t>
   </si>
   <si>
     <t>NXXXXX6</t>
   </si>
   <si>
-    <t>XXX61</t>
-  </si>
-  <si>
-    <t>AXXXXX61</t>
-  </si>
-  <si>
-    <t>XX61</t>
+    <t>XXX6</t>
+  </si>
+  <si>
+    <t>AXXXXX6</t>
+  </si>
+  <si>
+    <t>XX6</t>
+  </si>
+  <si>
+    <t>XXX16</t>
+  </si>
+  <si>
+    <t>AXXXXX16</t>
+  </si>
+  <si>
+    <t>XX16</t>
+  </si>
+  <si>
+    <t>XXX26</t>
+  </si>
+  <si>
+    <t>AXXXXX26</t>
+  </si>
+  <si>
+    <t>XX26</t>
+  </si>
+  <si>
+    <t>XXX36</t>
+  </si>
+  <si>
+    <t>AXXXXX36</t>
+  </si>
+  <si>
+    <t>XX36</t>
+  </si>
+  <si>
+    <t>XXX46</t>
+  </si>
+  <si>
+    <t>AXXXXX46</t>
+  </si>
+  <si>
+    <t>XX46</t>
+  </si>
+  <si>
+    <t>XXX56</t>
+  </si>
+  <si>
+    <t>AXXXXX56</t>
+  </si>
+  <si>
+    <t>XX56</t>
+  </si>
+  <si>
+    <t>XXX66</t>
+  </si>
+  <si>
+    <t>AXXXXX66</t>
+  </si>
+  <si>
+    <t>XX66</t>
+  </si>
+  <si>
+    <t>XXX76</t>
+  </si>
+  <si>
+    <t>AXXXXX76</t>
+  </si>
+  <si>
+    <t>XX76</t>
+  </si>
+  <si>
+    <t>XXX86</t>
+  </si>
+  <si>
+    <t>AXXXXX86</t>
+  </si>
+  <si>
+    <t>XX86</t>
+  </si>
+  <si>
+    <t>XXX96</t>
+  </si>
+  <si>
+    <t>AXXXXX96</t>
+  </si>
+  <si>
+    <t>XX96</t>
+  </si>
+  <si>
+    <t>XXX106</t>
+  </si>
+  <si>
+    <t>AXXXXX106</t>
+  </si>
+  <si>
+    <t>XX106</t>
+  </si>
+  <si>
+    <t>XXX116</t>
+  </si>
+  <si>
+    <t>AXXXXX116</t>
+  </si>
+  <si>
+    <t>XX116</t>
+  </si>
+  <si>
+    <t>XXX126</t>
+  </si>
+  <si>
+    <t>AXXXXX126</t>
+  </si>
+  <si>
+    <t>XX126</t>
+  </si>
+  <si>
+    <t>XXX136</t>
+  </si>
+  <si>
+    <t>AXXXXX136</t>
+  </si>
+  <si>
+    <t>XX136</t>
   </si>
   <si>
     <t>NXXXXX7</t>
   </si>
   <si>
-    <t>XXX71</t>
-  </si>
-  <si>
-    <t>AXXXXX71</t>
-  </si>
-  <si>
-    <t>XX71</t>
+    <t>XXX7</t>
+  </si>
+  <si>
+    <t>AXXXXX7</t>
+  </si>
+  <si>
+    <t>XX7</t>
+  </si>
+  <si>
+    <t>XXX17</t>
+  </si>
+  <si>
+    <t>AXXXXX17</t>
+  </si>
+  <si>
+    <t>XX17</t>
+  </si>
+  <si>
+    <t>XXX27</t>
+  </si>
+  <si>
+    <t>AXXXXX27</t>
+  </si>
+  <si>
+    <t>XX27</t>
+  </si>
+  <si>
+    <t>XXX37</t>
+  </si>
+  <si>
+    <t>AXXXXX37</t>
+  </si>
+  <si>
+    <t>XX37</t>
+  </si>
+  <si>
+    <t>XXX47</t>
+  </si>
+  <si>
+    <t>AXXXXX47</t>
+  </si>
+  <si>
+    <t>XX47</t>
+  </si>
+  <si>
+    <t>XXX57</t>
+  </si>
+  <si>
+    <t>AXXXXX57</t>
+  </si>
+  <si>
+    <t>XX57</t>
+  </si>
+  <si>
+    <t>XXX67</t>
+  </si>
+  <si>
+    <t>AXXXXX67</t>
+  </si>
+  <si>
+    <t>XX67</t>
+  </si>
+  <si>
+    <t>XXX77</t>
+  </si>
+  <si>
+    <t>AXXXXX77</t>
+  </si>
+  <si>
+    <t>XX77</t>
+  </si>
+  <si>
+    <t>XXX87</t>
+  </si>
+  <si>
+    <t>AXXXXX87</t>
+  </si>
+  <si>
+    <t>XX87</t>
+  </si>
+  <si>
+    <t>XXX97</t>
+  </si>
+  <si>
+    <t>AXXXXX97</t>
+  </si>
+  <si>
+    <t>XX97</t>
+  </si>
+  <si>
+    <t>XXX107</t>
+  </si>
+  <si>
+    <t>AXXXXX107</t>
+  </si>
+  <si>
+    <t>XX107</t>
+  </si>
+  <si>
+    <t>XXX117</t>
+  </si>
+  <si>
+    <t>AXXXXX117</t>
+  </si>
+  <si>
+    <t>XX117</t>
+  </si>
+  <si>
+    <t>XXX127</t>
+  </si>
+  <si>
+    <t>AXXXXX127</t>
+  </si>
+  <si>
+    <t>XX127</t>
+  </si>
+  <si>
+    <t>XXX137</t>
+  </si>
+  <si>
+    <t>AXXXXX137</t>
+  </si>
+  <si>
+    <t>XX137</t>
   </si>
   <si>
     <t>NXXXXX8</t>
   </si>
   <si>
-    <t>XXX81</t>
-  </si>
-  <si>
-    <t>AXXXXX81</t>
-  </si>
-  <si>
-    <t>XX81</t>
+    <t>XXX8</t>
+  </si>
+  <si>
+    <t>AXXXXX8</t>
+  </si>
+  <si>
+    <t>XX8</t>
+  </si>
+  <si>
+    <t>XXX18</t>
+  </si>
+  <si>
+    <t>AXXXXX18</t>
+  </si>
+  <si>
+    <t>XX18</t>
+  </si>
+  <si>
+    <t>XXX28</t>
+  </si>
+  <si>
+    <t>AXXXXX28</t>
+  </si>
+  <si>
+    <t>XX28</t>
+  </si>
+  <si>
+    <t>XXX38</t>
+  </si>
+  <si>
+    <t>AXXXXX38</t>
+  </si>
+  <si>
+    <t>XX38</t>
+  </si>
+  <si>
+    <t>XXX48</t>
+  </si>
+  <si>
+    <t>AXXXXX48</t>
+  </si>
+  <si>
+    <t>XX48</t>
+  </si>
+  <si>
+    <t>XXX58</t>
+  </si>
+  <si>
+    <t>AXXXXX58</t>
+  </si>
+  <si>
+    <t>XX58</t>
+  </si>
+  <si>
+    <t>XXX68</t>
+  </si>
+  <si>
+    <t>AXXXXX68</t>
+  </si>
+  <si>
+    <t>XX68</t>
+  </si>
+  <si>
+    <t>XXX78</t>
+  </si>
+  <si>
+    <t>AXXXXX78</t>
+  </si>
+  <si>
+    <t>XX78</t>
+  </si>
+  <si>
+    <t>XXX88</t>
+  </si>
+  <si>
+    <t>AXXXXX88</t>
+  </si>
+  <si>
+    <t>XX88</t>
+  </si>
+  <si>
+    <t>XXX98</t>
+  </si>
+  <si>
+    <t>AXXXXX98</t>
+  </si>
+  <si>
+    <t>XX98</t>
+  </si>
+  <si>
+    <t>XXX108</t>
+  </si>
+  <si>
+    <t>AXXXXX108</t>
+  </si>
+  <si>
+    <t>XX108</t>
+  </si>
+  <si>
+    <t>XXX118</t>
+  </si>
+  <si>
+    <t>AXXXXX118</t>
+  </si>
+  <si>
+    <t>XX118</t>
+  </si>
+  <si>
+    <t>XXX128</t>
+  </si>
+  <si>
+    <t>AXXXXX128</t>
+  </si>
+  <si>
+    <t>XX128</t>
+  </si>
+  <si>
+    <t>XXX138</t>
+  </si>
+  <si>
+    <t>AXXXXX138</t>
+  </si>
+  <si>
+    <t>XX138</t>
   </si>
   <si>
     <t>NXXXXX9</t>
-  </si>
-  <si>
-    <t>XXX91</t>
-  </si>
-  <si>
-    <t>AXXXXX91</t>
-  </si>
-  <si>
-    <t>XX91</t>
-  </si>
-  <si>
-    <t>XXX101</t>
-  </si>
-  <si>
-    <t>AXXXXX101</t>
-  </si>
-  <si>
-    <t>XX101</t>
-  </si>
-  <si>
-    <t>XXX111</t>
-  </si>
-  <si>
-    <t>AXXXXX111</t>
-  </si>
-  <si>
-    <t>XX111</t>
-  </si>
-  <si>
-    <t>XXX121</t>
-  </si>
-  <si>
-    <t>AXXXXX121</t>
-  </si>
-  <si>
-    <t>XX121</t>
-  </si>
-  <si>
-    <t>XXX131</t>
-  </si>
-  <si>
-    <t>AXXXXX131</t>
-  </si>
-  <si>
-    <t>XX131</t>
-  </si>
-  <si>
-    <t>XXX2</t>
-  </si>
-  <si>
-    <t>AXXXXX2</t>
-  </si>
-  <si>
-    <t>XX2</t>
-  </si>
-  <si>
-    <t>XXX12</t>
-  </si>
-  <si>
-    <t>AXXXXX12</t>
-  </si>
-  <si>
-    <t>XX12</t>
-  </si>
-  <si>
-    <t>XXX22</t>
-  </si>
-  <si>
-    <t>AXXXXX22</t>
-  </si>
-  <si>
-    <t>XX22</t>
-  </si>
-  <si>
-    <t>在左边的数据列查找P列，然后返回或者显示我要的信息。
-Excel 的advanced filter没法精确查找，例如搜索P2， NXXXXX1, 仍然会显示NXXXXX10的数据</t>
-  </si>
-  <si>
-    <t>XXX32</t>
-  </si>
-  <si>
-    <t>AXXXXX32</t>
-  </si>
-  <si>
-    <t>XX32</t>
-  </si>
-  <si>
-    <t>XXX42</t>
-  </si>
-  <si>
-    <t>AXXXXX42</t>
-  </si>
-  <si>
-    <t>XX42</t>
-  </si>
-  <si>
-    <t>XXX52</t>
-  </si>
-  <si>
-    <t>AXXXXX52</t>
-  </si>
-  <si>
-    <t>XX52</t>
-  </si>
-  <si>
-    <t>XXX62</t>
-  </si>
-  <si>
-    <t>AXXXXX62</t>
-  </si>
-  <si>
-    <t>XX62</t>
-  </si>
-  <si>
-    <t>XXX72</t>
-  </si>
-  <si>
-    <t>AXXXXX72</t>
-  </si>
-  <si>
-    <t>XX72</t>
-  </si>
-  <si>
-    <t>XXX82</t>
-  </si>
-  <si>
-    <t>AXXXXX82</t>
-  </si>
-  <si>
-    <t>XX82</t>
-  </si>
-  <si>
-    <t>XXX92</t>
-  </si>
-  <si>
-    <t>AXXXXX92</t>
-  </si>
-  <si>
-    <t>XX92</t>
-  </si>
-  <si>
-    <t>XXX102</t>
-  </si>
-  <si>
-    <t>AXXXXX102</t>
-  </si>
-  <si>
-    <t>XX102</t>
-  </si>
-  <si>
-    <t>XXX112</t>
-  </si>
-  <si>
-    <t>AXXXXX112</t>
-  </si>
-  <si>
-    <t>XX112</t>
-  </si>
-  <si>
-    <t>XXX122</t>
-  </si>
-  <si>
-    <t>AXXXXX122</t>
-  </si>
-  <si>
-    <t>XX122</t>
-  </si>
-  <si>
-    <t>XXX132</t>
-  </si>
-  <si>
-    <t>AXXXXX132</t>
-  </si>
-  <si>
-    <t>XX132</t>
-  </si>
-  <si>
-    <t>XXX3</t>
-  </si>
-  <si>
-    <t>AXXXXX3</t>
-  </si>
-  <si>
-    <t>XX3</t>
-  </si>
-  <si>
-    <t>XXX13</t>
-  </si>
-  <si>
-    <t>AXXXXX13</t>
-  </si>
-  <si>
-    <t>XX13</t>
-  </si>
-  <si>
-    <t>XXX23</t>
-  </si>
-  <si>
-    <t>AXXXXX23</t>
-  </si>
-  <si>
-    <t>XX23</t>
-  </si>
-  <si>
-    <t>XXX33</t>
-  </si>
-  <si>
-    <t>AXXXXX33</t>
-  </si>
-  <si>
-    <t>XX33</t>
-  </si>
-  <si>
-    <t>XXX43</t>
-  </si>
-  <si>
-    <t>AXXXXX43</t>
-  </si>
-  <si>
-    <t>XX43</t>
-  </si>
-  <si>
-    <t>XXX53</t>
-  </si>
-  <si>
-    <t>AXXXXX53</t>
-  </si>
-  <si>
-    <t>XX53</t>
-  </si>
-  <si>
-    <t>XXX63</t>
-  </si>
-  <si>
-    <t>AXXXXX63</t>
-  </si>
-  <si>
-    <t>XX63</t>
-  </si>
-  <si>
-    <t>XXX73</t>
-  </si>
-  <si>
-    <t>AXXXXX73</t>
-  </si>
-  <si>
-    <t>XX73</t>
-  </si>
-  <si>
-    <t>XXX83</t>
-  </si>
-  <si>
-    <t>AXXXXX83</t>
-  </si>
-  <si>
-    <t>XX83</t>
-  </si>
-  <si>
-    <t>XXX93</t>
-  </si>
-  <si>
-    <t>AXXXXX93</t>
-  </si>
-  <si>
-    <t>XX93</t>
-  </si>
-  <si>
-    <t>XXX103</t>
-  </si>
-  <si>
-    <t>AXXXXX103</t>
-  </si>
-  <si>
-    <t>XX103</t>
-  </si>
-  <si>
-    <t>XXX113</t>
-  </si>
-  <si>
-    <t>AXXXXX113</t>
-  </si>
-  <si>
-    <t>XX113</t>
-  </si>
-  <si>
-    <t>XXX123</t>
-  </si>
-  <si>
-    <t>AXXXXX123</t>
-  </si>
-  <si>
-    <t>XX123</t>
-  </si>
-  <si>
-    <t>XXX133</t>
-  </si>
-  <si>
-    <t>AXXXXX133</t>
-  </si>
-  <si>
-    <t>XX133</t>
-  </si>
-  <si>
-    <t>XXX4</t>
-  </si>
-  <si>
-    <t>AXXXXX4</t>
-  </si>
-  <si>
-    <t>XX4</t>
-  </si>
-  <si>
-    <t>XXX14</t>
-  </si>
-  <si>
-    <t>AXXXXX14</t>
-  </si>
-  <si>
-    <t>XX14</t>
-  </si>
-  <si>
-    <t>XXX24</t>
-  </si>
-  <si>
-    <t>AXXXXX24</t>
-  </si>
-  <si>
-    <t>XX24</t>
-  </si>
-  <si>
-    <t>XXX34</t>
-  </si>
-  <si>
-    <t>AXXXXX34</t>
-  </si>
-  <si>
-    <t>XX34</t>
-  </si>
-  <si>
-    <t>XXX44</t>
-  </si>
-  <si>
-    <t>AXXXXX44</t>
-  </si>
-  <si>
-    <t>XX44</t>
-  </si>
-  <si>
-    <t>XXX54</t>
-  </si>
-  <si>
-    <t>AXXXXX54</t>
-  </si>
-  <si>
-    <t>XX54</t>
-  </si>
-  <si>
-    <t>XXX64</t>
-  </si>
-  <si>
-    <t>AXXXXX64</t>
-  </si>
-  <si>
-    <t>XX64</t>
-  </si>
-  <si>
-    <t>XXX74</t>
-  </si>
-  <si>
-    <t>AXXXXX74</t>
-  </si>
-  <si>
-    <t>XX74</t>
-  </si>
-  <si>
-    <t>XXX84</t>
-  </si>
-  <si>
-    <t>AXXXXX84</t>
-  </si>
-  <si>
-    <t>XX84</t>
-  </si>
-  <si>
-    <t>XXX94</t>
-  </si>
-  <si>
-    <t>AXXXXX94</t>
-  </si>
-  <si>
-    <t>XX94</t>
-  </si>
-  <si>
-    <t>XXX104</t>
-  </si>
-  <si>
-    <t>AXXXXX104</t>
-  </si>
-  <si>
-    <t>XX104</t>
-  </si>
-  <si>
-    <t>XXX114</t>
-  </si>
-  <si>
-    <t>AXXXXX114</t>
-  </si>
-  <si>
-    <t>XX114</t>
-  </si>
-  <si>
-    <t>XXX124</t>
-  </si>
-  <si>
-    <t>AXXXXX124</t>
-  </si>
-  <si>
-    <t>XX124</t>
-  </si>
-  <si>
-    <t>XXX134</t>
-  </si>
-  <si>
-    <t>AXXXXX134</t>
-  </si>
-  <si>
-    <t>XX134</t>
-  </si>
-  <si>
-    <t>XXX5</t>
-  </si>
-  <si>
-    <t>AXXXXX5</t>
-  </si>
-  <si>
-    <t>XX5</t>
-  </si>
-  <si>
-    <t>XXX15</t>
-  </si>
-  <si>
-    <t>AXXXXX15</t>
-  </si>
-  <si>
-    <t>XX15</t>
-  </si>
-  <si>
-    <t>XXX25</t>
-  </si>
-  <si>
-    <t>AXXXXX25</t>
-  </si>
-  <si>
-    <t>XX25</t>
-  </si>
-  <si>
-    <t>XXX35</t>
-  </si>
-  <si>
-    <t>AXXXXX35</t>
-  </si>
-  <si>
-    <t>XX35</t>
-  </si>
-  <si>
-    <t>XXX45</t>
-  </si>
-  <si>
-    <t>AXXXXX45</t>
-  </si>
-  <si>
-    <t>XX45</t>
-  </si>
-  <si>
-    <t>XXX55</t>
-  </si>
-  <si>
-    <t>AXXXXX55</t>
-  </si>
-  <si>
-    <t>XX55</t>
-  </si>
-  <si>
-    <t>XXX65</t>
-  </si>
-  <si>
-    <t>AXXXXX65</t>
-  </si>
-  <si>
-    <t>XX65</t>
-  </si>
-  <si>
-    <t>XXX75</t>
-  </si>
-  <si>
-    <t>AXXXXX75</t>
-  </si>
-  <si>
-    <t>XX75</t>
-  </si>
-  <si>
-    <t>XXX85</t>
-  </si>
-  <si>
-    <t>AXXXXX85</t>
-  </si>
-  <si>
-    <t>XX85</t>
-  </si>
-  <si>
-    <t>XXX95</t>
-  </si>
-  <si>
-    <t>AXXXXX95</t>
-  </si>
-  <si>
-    <t>XX95</t>
-  </si>
-  <si>
-    <t>XXX105</t>
-  </si>
-  <si>
-    <t>AXXXXX105</t>
-  </si>
-  <si>
-    <t>XX105</t>
-  </si>
-  <si>
-    <t>XXX115</t>
-  </si>
-  <si>
-    <t>AXXXXX115</t>
-  </si>
-  <si>
-    <t>XX115</t>
-  </si>
-  <si>
-    <t>XXX125</t>
-  </si>
-  <si>
-    <t>AXXXXX125</t>
-  </si>
-  <si>
-    <t>XX125</t>
-  </si>
-  <si>
-    <t>XXX135</t>
-  </si>
-  <si>
-    <t>AXXXXX135</t>
-  </si>
-  <si>
-    <t>XX135</t>
-  </si>
-  <si>
-    <t>XXX6</t>
-  </si>
-  <si>
-    <t>AXXXXX6</t>
-  </si>
-  <si>
-    <t>XX6</t>
-  </si>
-  <si>
-    <t>XXX16</t>
-  </si>
-  <si>
-    <t>AXXXXX16</t>
-  </si>
-  <si>
-    <t>XX16</t>
-  </si>
-  <si>
-    <t>XXX26</t>
-  </si>
-  <si>
-    <t>AXXXXX26</t>
-  </si>
-  <si>
-    <t>XX26</t>
-  </si>
-  <si>
-    <t>XXX36</t>
-  </si>
-  <si>
-    <t>AXXXXX36</t>
-  </si>
-  <si>
-    <t>XX36</t>
-  </si>
-  <si>
-    <t>XXX46</t>
-  </si>
-  <si>
-    <t>AXXXXX46</t>
-  </si>
-  <si>
-    <t>XX46</t>
-  </si>
-  <si>
-    <t>XXX56</t>
-  </si>
-  <si>
-    <t>AXXXXX56</t>
-  </si>
-  <si>
-    <t>XX56</t>
-  </si>
-  <si>
-    <t>XXX66</t>
-  </si>
-  <si>
-    <t>AXXXXX66</t>
-  </si>
-  <si>
-    <t>XX66</t>
-  </si>
-  <si>
-    <t>XXX76</t>
-  </si>
-  <si>
-    <t>AXXXXX76</t>
-  </si>
-  <si>
-    <t>XX76</t>
-  </si>
-  <si>
-    <t>XXX86</t>
-  </si>
-  <si>
-    <t>AXXXXX86</t>
-  </si>
-  <si>
-    <t>XX86</t>
-  </si>
-  <si>
-    <t>XXX96</t>
-  </si>
-  <si>
-    <t>AXXXXX96</t>
-  </si>
-  <si>
-    <t>XX96</t>
-  </si>
-  <si>
-    <t>XXX106</t>
-  </si>
-  <si>
-    <t>AXXXXX106</t>
-  </si>
-  <si>
-    <t>XX106</t>
-  </si>
-  <si>
-    <t>XXX116</t>
-  </si>
-  <si>
-    <t>AXXXXX116</t>
-  </si>
-  <si>
-    <t>XX116</t>
-  </si>
-  <si>
-    <t>XXX126</t>
-  </si>
-  <si>
-    <t>AXXXXX126</t>
-  </si>
-  <si>
-    <t>XX126</t>
-  </si>
-  <si>
-    <t>XXX136</t>
-  </si>
-  <si>
-    <t>AXXXXX136</t>
-  </si>
-  <si>
-    <t>XX136</t>
-  </si>
-  <si>
-    <t>XXX7</t>
-  </si>
-  <si>
-    <t>AXXXXX7</t>
-  </si>
-  <si>
-    <t>XX7</t>
-  </si>
-  <si>
-    <t>XXX17</t>
-  </si>
-  <si>
-    <t>AXXXXX17</t>
-  </si>
-  <si>
-    <t>XX17</t>
-  </si>
-  <si>
-    <t>XXX27</t>
-  </si>
-  <si>
-    <t>AXXXXX27</t>
-  </si>
-  <si>
-    <t>XX27</t>
-  </si>
-  <si>
-    <t>XXX37</t>
-  </si>
-  <si>
-    <t>AXXXXX37</t>
-  </si>
-  <si>
-    <t>XX37</t>
-  </si>
-  <si>
-    <t>XXX47</t>
-  </si>
-  <si>
-    <t>AXXXXX47</t>
-  </si>
-  <si>
-    <t>XX47</t>
-  </si>
-  <si>
-    <t>XXX57</t>
-  </si>
-  <si>
-    <t>AXXXXX57</t>
-  </si>
-  <si>
-    <t>XX57</t>
-  </si>
-  <si>
-    <t>XXX67</t>
-  </si>
-  <si>
-    <t>AXXXXX67</t>
-  </si>
-  <si>
-    <t>XX67</t>
-  </si>
-  <si>
-    <t>XXX77</t>
-  </si>
-  <si>
-    <t>AXXXXX77</t>
-  </si>
-  <si>
-    <t>XX77</t>
-  </si>
-  <si>
-    <t>XXX87</t>
-  </si>
-  <si>
-    <t>AXXXXX87</t>
-  </si>
-  <si>
-    <t>XX87</t>
-  </si>
-  <si>
-    <t>XXX97</t>
-  </si>
-  <si>
-    <t>AXXXXX97</t>
-  </si>
-  <si>
-    <t>XX97</t>
-  </si>
-  <si>
-    <t>XXX107</t>
-  </si>
-  <si>
-    <t>AXXXXX107</t>
-  </si>
-  <si>
-    <t>XX107</t>
-  </si>
-  <si>
-    <t>XXX117</t>
-  </si>
-  <si>
-    <t>AXXXXX117</t>
-  </si>
-  <si>
-    <t>XX117</t>
-  </si>
-  <si>
-    <t>XXX127</t>
-  </si>
-  <si>
-    <t>AXXXXX127</t>
-  </si>
-  <si>
-    <t>XX127</t>
-  </si>
-  <si>
-    <t>XXX137</t>
-  </si>
-  <si>
-    <t>AXXXXX137</t>
-  </si>
-  <si>
-    <t>XX137</t>
-  </si>
-  <si>
-    <t>XXX8</t>
-  </si>
-  <si>
-    <t>AXXXXX8</t>
-  </si>
-  <si>
-    <t>XX8</t>
-  </si>
-  <si>
-    <t>XXX18</t>
-  </si>
-  <si>
-    <t>AXXXXX18</t>
-  </si>
-  <si>
-    <t>XX18</t>
-  </si>
-  <si>
-    <t>XXX28</t>
-  </si>
-  <si>
-    <t>AXXXXX28</t>
-  </si>
-  <si>
-    <t>XX28</t>
-  </si>
-  <si>
-    <t>XXX38</t>
-  </si>
-  <si>
-    <t>AXXXXX38</t>
-  </si>
-  <si>
-    <t>XX38</t>
-  </si>
-  <si>
-    <t>XXX48</t>
-  </si>
-  <si>
-    <t>AXXXXX48</t>
-  </si>
-  <si>
-    <t>XX48</t>
-  </si>
-  <si>
-    <t>XXX58</t>
-  </si>
-  <si>
-    <t>AXXXXX58</t>
-  </si>
-  <si>
-    <t>XX58</t>
-  </si>
-  <si>
-    <t>XXX68</t>
-  </si>
-  <si>
-    <t>AXXXXX68</t>
-  </si>
-  <si>
-    <t>XX68</t>
-  </si>
-  <si>
-    <t>XXX78</t>
-  </si>
-  <si>
-    <t>AXXXXX78</t>
-  </si>
-  <si>
-    <t>XX78</t>
-  </si>
-  <si>
-    <t>XXX88</t>
-  </si>
-  <si>
-    <t>AXXXXX88</t>
-  </si>
-  <si>
-    <t>XX88</t>
-  </si>
-  <si>
-    <t>XXX98</t>
-  </si>
-  <si>
-    <t>AXXXXX98</t>
-  </si>
-  <si>
-    <t>XX98</t>
-  </si>
-  <si>
-    <t>XXX108</t>
-  </si>
-  <si>
-    <t>AXXXXX108</t>
-  </si>
-  <si>
-    <t>XX108</t>
-  </si>
-  <si>
-    <t>XXX118</t>
-  </si>
-  <si>
-    <t>AXXXXX118</t>
-  </si>
-  <si>
-    <t>XX118</t>
-  </si>
-  <si>
-    <t>XXX128</t>
-  </si>
-  <si>
-    <t>AXXXXX128</t>
-  </si>
-  <si>
-    <t>XX128</t>
-  </si>
-  <si>
-    <t>XXX138</t>
-  </si>
-  <si>
-    <t>AXXXXX138</t>
-  </si>
-  <si>
-    <t>XX138</t>
   </si>
   <si>
     <t>XXX9</t>
@@ -1231,12 +1233,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1253,16 +1255,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1276,21 +1300,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1304,16 +1321,41 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1327,24 +1369,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1358,47 +1392,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1413,7 +1408,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1425,7 +1420,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1437,7 +1438,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1449,7 +1498,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1461,43 +1510,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1509,91 +1582,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1618,6 +1613,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1635,9 +1645,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1646,7 +1658,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1662,17 +1674,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1695,182 +1696,179 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="7">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="3">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="3">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2191,10 +2189,35 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:T253"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:J18"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:J253"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2204,46 +2227,26 @@
     <col min="3" max="3" width="11.1407407407407" customWidth="1"/>
     <col min="4" max="4" width="19.4222222222222" customWidth="1"/>
     <col min="5" max="5" width="8.71111111111111" customWidth="1"/>
-    <col min="16" max="16" width="18.7777777777778" customWidth="1"/>
-    <col min="17" max="17" width="15.8518518518519" customWidth="1"/>
-    <col min="18" max="18" width="8.42222222222222" customWidth="1"/>
-    <col min="19" max="19" width="19.2814814814815" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1"/>
-      <c r="P1" t="s">
         <v>5</v>
       </c>
-      <c r="Q1" t="s">
-        <v>1</v>
-      </c>
-      <c r="R1" t="s">
-        <v>2</v>
-      </c>
-      <c r="S1" t="s">
-        <v>3</v>
-      </c>
-      <c r="T1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16">
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -2259,11 +2262,8 @@
       <c r="E2">
         <v>1</v>
       </c>
-      <c r="P2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16">
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -2279,148 +2279,124 @@
       <c r="E3">
         <v>11</v>
       </c>
-      <c r="P3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16">
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
         <v>14</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>16</v>
       </c>
       <c r="E4">
         <v>21</v>
       </c>
-      <c r="P4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16">
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
         <v>18</v>
-      </c>
-      <c r="C5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
       </c>
       <c r="E5">
         <v>31</v>
       </c>
-      <c r="P5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16">
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>41</v>
       </c>
-      <c r="P6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16">
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E7">
         <v>51</v>
       </c>
-      <c r="P7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16">
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E8">
         <v>61</v>
       </c>
-      <c r="P8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16">
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D9" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E9">
         <v>71</v>
       </c>
-      <c r="P9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16">
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C10" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D10" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="E10">
         <v>81</v>
-      </c>
-      <c r="P10" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2428,13 +2404,13 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C11" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="E11">
         <v>91</v>
@@ -2445,13 +2421,13 @@
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C12" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D12" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="E12">
         <v>101</v>
@@ -2462,13 +2438,13 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C13" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D13" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="E13">
         <v>111</v>
@@ -2479,13 +2455,13 @@
         <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C14" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D14" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="E14">
         <v>121</v>
@@ -2496,13 +2472,13 @@
         <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C15" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D15" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="E15">
         <v>131</v>
@@ -2510,16 +2486,16 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="B16" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C16" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="D16" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="E16">
         <v>2</v>
@@ -2527,451 +2503,337 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="B17" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C17" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="D17" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="E17">
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:10">
       <c r="A18" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="B18" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="C18" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="D18" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="E18">
         <v>22</v>
       </c>
-      <c r="I18" s="2" t="s">
-        <v>66</v>
-      </c>
+      <c r="I18" s="2"/>
       <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="3"/>
-    </row>
-    <row r="19" spans="1:17">
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="B19" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C19" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="D19" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="E19">
         <v>32</v>
       </c>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="1:17">
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="B20" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C20" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="D20" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="E20">
         <v>42</v>
       </c>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
-      <c r="O20" s="3"/>
-      <c r="P20" s="3"/>
-      <c r="Q20" s="3"/>
-    </row>
-    <row r="21" spans="1:17">
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="B21" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C21" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="D21" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="E21">
         <v>52</v>
       </c>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
-      <c r="P21" s="3"/>
-      <c r="Q21" s="3"/>
-    </row>
-    <row r="22" spans="1:17">
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="B22" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C22" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="D22" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="E22">
         <v>62</v>
       </c>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
-      <c r="O22" s="3"/>
-      <c r="P22" s="3"/>
-      <c r="Q22" s="3"/>
-    </row>
-    <row r="23" spans="1:17">
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="B23" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C23" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="D23" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="E23">
         <v>72</v>
       </c>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
-      <c r="O23" s="3"/>
-      <c r="P23" s="3"/>
-      <c r="Q23" s="3"/>
-    </row>
-    <row r="24" spans="1:17">
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="B24" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C24" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="D24" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E24">
         <v>82</v>
       </c>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
-      <c r="O24" s="3"/>
-      <c r="P24" s="3"/>
-      <c r="Q24" s="3"/>
-    </row>
-    <row r="25" spans="1:17">
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="B25" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C25" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="D25" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="E25">
         <v>92</v>
       </c>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
-      <c r="O25" s="3"/>
-      <c r="P25" s="3"/>
-      <c r="Q25" s="3"/>
-    </row>
-    <row r="26" spans="1:17">
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="B26" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C26" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="D26" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="E26">
         <v>102</v>
       </c>
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
-      <c r="O26" s="3"/>
-      <c r="P26" s="3"/>
-      <c r="Q26" s="3"/>
-    </row>
-    <row r="27" spans="1:17">
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="B27" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C27" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="D27" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="E27">
         <v>112</v>
       </c>
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
-      <c r="N27" s="3"/>
-      <c r="O27" s="3"/>
-      <c r="P27" s="3"/>
-      <c r="Q27" s="3"/>
-    </row>
-    <row r="28" spans="1:17">
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="B28" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C28" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D28" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="E28">
         <v>122</v>
       </c>
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
-      <c r="N28" s="3"/>
-      <c r="O28" s="3"/>
-      <c r="P28" s="3"/>
-      <c r="Q28" s="3"/>
-    </row>
-    <row r="29" spans="1:17">
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="B29" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C29" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="D29" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="E29">
         <v>132</v>
       </c>
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="3"/>
-      <c r="N29" s="3"/>
-      <c r="O29" s="3"/>
-      <c r="P29" s="3"/>
-      <c r="Q29" s="3"/>
-    </row>
-    <row r="30" spans="1:17">
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" t="s">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="B30" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C30" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="D30" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="E30">
         <v>3</v>
       </c>
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
-      <c r="M30" s="3"/>
-      <c r="N30" s="3"/>
-      <c r="O30" s="3"/>
-      <c r="P30" s="3"/>
-      <c r="Q30" s="3"/>
-    </row>
-    <row r="31" spans="1:17">
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" t="s">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="B31" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C31" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="D31" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="E31">
         <v>13</v>
       </c>
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
-      <c r="K31" s="3"/>
-      <c r="L31" s="3"/>
-      <c r="M31" s="3"/>
-      <c r="N31" s="3"/>
-      <c r="O31" s="3"/>
-      <c r="P31" s="3"/>
-      <c r="Q31" s="3"/>
-    </row>
-    <row r="32" spans="1:17">
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" t="s">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="B32" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="C32" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="D32" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="E32">
         <v>23</v>
       </c>
       <c r="I32" s="3"/>
       <c r="J32" s="3"/>
-      <c r="K32" s="3"/>
-      <c r="L32" s="3"/>
-      <c r="M32" s="3"/>
-      <c r="N32" s="3"/>
-      <c r="O32" s="3"/>
-      <c r="P32" s="3"/>
-      <c r="Q32" s="3"/>
-    </row>
-    <row r="33" spans="1:17">
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" t="s">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="B33" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="C33" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="D33" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="E33">
         <v>33</v>
       </c>
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
-      <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
-      <c r="M33" s="3"/>
-      <c r="N33" s="3"/>
-      <c r="O33" s="3"/>
-      <c r="P33" s="3"/>
-      <c r="Q33" s="3"/>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="B34" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="C34" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="D34" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="E34">
         <v>43</v>
@@ -2979,16 +2841,16 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="B35" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="C35" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="D35" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="E35">
         <v>53</v>
@@ -2996,16 +2858,16 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="B36" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="C36" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="D36" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="E36">
         <v>63</v>
@@ -3013,16 +2875,16 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="B37" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="C37" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="D37" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="E37">
         <v>73</v>
@@ -3030,16 +2892,16 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="B38" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C38" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="D38" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="E38">
         <v>83</v>
@@ -3047,16 +2909,16 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="B39" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="C39" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="D39" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="E39">
         <v>93</v>
@@ -3064,16 +2926,16 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="B40" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="C40" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="D40" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E40">
         <v>103</v>
@@ -3081,16 +2943,16 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="B41" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="C41" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="D41" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="E41">
         <v>113</v>
@@ -3098,16 +2960,16 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="B42" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="C42" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="D42" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="E42">
         <v>123</v>
@@ -3115,16 +2977,16 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="B43" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="C43" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="D43" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="E43">
         <v>133</v>
@@ -3132,16 +2994,16 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>21</v>
+        <v>135</v>
       </c>
       <c r="B44" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="C44" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="D44" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="E44">
         <v>4</v>
@@ -3149,16 +3011,16 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>21</v>
+        <v>135</v>
       </c>
       <c r="B45" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C45" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="D45" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="E45">
         <v>14</v>
@@ -3166,16 +3028,16 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>21</v>
+        <v>135</v>
       </c>
       <c r="B46" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="C46" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="D46" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="E46">
         <v>24</v>
@@ -3183,16 +3045,16 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>21</v>
+        <v>135</v>
       </c>
       <c r="B47" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="C47" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="D47" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="E47">
         <v>34</v>
@@ -3200,16 +3062,16 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" t="s">
-        <v>21</v>
+        <v>135</v>
       </c>
       <c r="B48" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="C48" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="D48" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="E48">
         <v>44</v>
@@ -3217,16 +3079,16 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" t="s">
-        <v>21</v>
+        <v>135</v>
       </c>
       <c r="B49" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="C49" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="D49" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="E49">
         <v>54</v>
@@ -3234,16 +3096,16 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" t="s">
-        <v>21</v>
+        <v>135</v>
       </c>
       <c r="B50" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C50" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="D50" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="E50">
         <v>64</v>
@@ -3251,16 +3113,16 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" t="s">
-        <v>21</v>
+        <v>135</v>
       </c>
       <c r="B51" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C51" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D51" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="E51">
         <v>74</v>
@@ -3268,16 +3130,16 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" t="s">
-        <v>21</v>
+        <v>135</v>
       </c>
       <c r="B52" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="C52" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="D52" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E52">
         <v>84</v>
@@ -3285,16 +3147,16 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" t="s">
-        <v>21</v>
+        <v>135</v>
       </c>
       <c r="B53" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C53" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="D53" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="E53">
         <v>94</v>
@@ -3302,16 +3164,16 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" t="s">
-        <v>21</v>
+        <v>135</v>
       </c>
       <c r="B54" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="C54" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="D54" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="E54">
         <v>104</v>
@@ -3319,16 +3181,16 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55" t="s">
-        <v>21</v>
+        <v>135</v>
       </c>
       <c r="B55" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="C55" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="D55" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="E55">
         <v>114</v>
@@ -3336,16 +3198,16 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" t="s">
-        <v>21</v>
+        <v>135</v>
       </c>
       <c r="B56" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="C56" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="D56" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="E56">
         <v>124</v>
@@ -3353,16 +3215,16 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" t="s">
-        <v>21</v>
+        <v>135</v>
       </c>
       <c r="B57" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="C57" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="D57" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="E57">
         <v>134</v>
@@ -3370,16 +3232,16 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" t="s">
-        <v>25</v>
+        <v>178</v>
       </c>
       <c r="B58" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="C58" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="D58" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="E58">
         <v>5</v>
@@ -3387,16 +3249,16 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59" t="s">
-        <v>25</v>
+        <v>178</v>
       </c>
       <c r="B59" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C59" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="D59" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="E59">
         <v>15</v>
@@ -3404,16 +3266,16 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" t="s">
-        <v>25</v>
+        <v>178</v>
       </c>
       <c r="B60" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C60" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="D60" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="E60">
         <v>25</v>
@@ -3421,16 +3283,16 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61" t="s">
-        <v>25</v>
+        <v>178</v>
       </c>
       <c r="B61" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C61" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D61" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="E61">
         <v>35</v>
@@ -3438,16 +3300,16 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" t="s">
-        <v>25</v>
+        <v>178</v>
       </c>
       <c r="B62" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="C62" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="D62" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="E62">
         <v>45</v>
@@ -3455,16 +3317,16 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" t="s">
-        <v>25</v>
+        <v>178</v>
       </c>
       <c r="B63" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="C63" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="D63" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="E63">
         <v>55</v>
@@ -3472,16 +3334,16 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64" t="s">
-        <v>25</v>
+        <v>178</v>
       </c>
       <c r="B64" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C64" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="D64" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="E64">
         <v>65</v>
@@ -3489,16 +3351,16 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65" t="s">
-        <v>25</v>
+        <v>178</v>
       </c>
       <c r="B65" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="C65" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D65" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="E65">
         <v>75</v>
@@ -3506,16 +3368,16 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66" t="s">
-        <v>25</v>
+        <v>178</v>
       </c>
       <c r="B66" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C66" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="D66" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="E66">
         <v>85</v>
@@ -3523,16 +3385,16 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67" t="s">
-        <v>25</v>
+        <v>178</v>
       </c>
       <c r="B67" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C67" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="D67" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="E67">
         <v>95</v>
@@ -3540,16 +3402,16 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68" t="s">
-        <v>25</v>
+        <v>178</v>
       </c>
       <c r="B68" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="C68" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="D68" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="E68">
         <v>105</v>
@@ -3557,16 +3419,16 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69" t="s">
-        <v>25</v>
+        <v>178</v>
       </c>
       <c r="B69" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C69" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="D69" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="E69">
         <v>115</v>
@@ -3574,16 +3436,16 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70" t="s">
-        <v>25</v>
+        <v>178</v>
       </c>
       <c r="B70" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C70" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="D70" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="E70">
         <v>125</v>
@@ -3591,16 +3453,16 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" t="s">
-        <v>25</v>
+        <v>178</v>
       </c>
       <c r="B71" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="C71" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="D71" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="E71">
         <v>135</v>
@@ -3608,16 +3470,16 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72" t="s">
-        <v>29</v>
+        <v>221</v>
       </c>
       <c r="B72" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C72" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="D72" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="E72">
         <v>6</v>
@@ -3625,16 +3487,16 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73" t="s">
-        <v>29</v>
+        <v>221</v>
       </c>
       <c r="B73" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C73" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="D73" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="E73">
         <v>16</v>
@@ -3642,16 +3504,16 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74" t="s">
-        <v>29</v>
+        <v>221</v>
       </c>
       <c r="B74" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C74" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="D74" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E74">
         <v>26</v>
@@ -3659,16 +3521,16 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75" t="s">
-        <v>29</v>
+        <v>221</v>
       </c>
       <c r="B75" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C75" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D75" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="E75">
         <v>36</v>
@@ -3676,16 +3538,16 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76" t="s">
-        <v>29</v>
+        <v>221</v>
       </c>
       <c r="B76" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C76" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D76" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="E76">
         <v>46</v>
@@ -3693,16 +3555,16 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77" t="s">
-        <v>29</v>
+        <v>221</v>
       </c>
       <c r="B77" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C77" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D77" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="E77">
         <v>56</v>
@@ -3710,16 +3572,16 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78" t="s">
-        <v>29</v>
+        <v>221</v>
       </c>
       <c r="B78" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C78" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="D78" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="E78">
         <v>66</v>
@@ -3727,16 +3589,16 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79" t="s">
-        <v>29</v>
+        <v>221</v>
       </c>
       <c r="B79" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C79" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="D79" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="E79">
         <v>76</v>
@@ -3744,16 +3606,16 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80" t="s">
-        <v>29</v>
+        <v>221</v>
       </c>
       <c r="B80" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C80" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="D80" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="E80">
         <v>86</v>
@@ -3761,16 +3623,16 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81" t="s">
-        <v>29</v>
+        <v>221</v>
       </c>
       <c r="B81" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C81" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="D81" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="E81">
         <v>96</v>
@@ -3778,16 +3640,16 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82" t="s">
-        <v>29</v>
+        <v>221</v>
       </c>
       <c r="B82" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="C82" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D82" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="E82">
         <v>106</v>
@@ -3795,16 +3657,16 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83" t="s">
-        <v>29</v>
+        <v>221</v>
       </c>
       <c r="B83" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C83" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="D83" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="E83">
         <v>116</v>
@@ -3812,16 +3674,16 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84" t="s">
-        <v>29</v>
+        <v>221</v>
       </c>
       <c r="B84" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C84" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="D84" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="E84">
         <v>126</v>
@@ -3829,16 +3691,16 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85" t="s">
-        <v>29</v>
+        <v>221</v>
       </c>
       <c r="B85" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C85" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D85" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="E85">
         <v>136</v>
@@ -3846,16 +3708,16 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86" t="s">
-        <v>33</v>
+        <v>264</v>
       </c>
       <c r="B86" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C86" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D86" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E86">
         <v>7</v>
@@ -3863,16 +3725,16 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87" t="s">
-        <v>33</v>
+        <v>264</v>
       </c>
       <c r="B87" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C87" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D87" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="E87">
         <v>17</v>
@@ -3880,16 +3742,16 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88" t="s">
-        <v>33</v>
+        <v>264</v>
       </c>
       <c r="B88" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C88" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D88" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E88">
         <v>27</v>
@@ -3897,16 +3759,16 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89" t="s">
-        <v>33</v>
+        <v>264</v>
       </c>
       <c r="B89" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C89" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D89" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E89">
         <v>37</v>
@@ -3914,16 +3776,16 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90" t="s">
-        <v>33</v>
+        <v>264</v>
       </c>
       <c r="B90" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C90" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D90" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="E90">
         <v>47</v>
@@ -3931,16 +3793,16 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91" t="s">
-        <v>33</v>
+        <v>264</v>
       </c>
       <c r="B91" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C91" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D91" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="E91">
         <v>57</v>
@@ -3948,16 +3810,16 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92" t="s">
-        <v>33</v>
+        <v>264</v>
       </c>
       <c r="B92" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C92" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D92" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="E92">
         <v>67</v>
@@ -3965,16 +3827,16 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93" t="s">
-        <v>33</v>
+        <v>264</v>
       </c>
       <c r="B93" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C93" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D93" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="E93">
         <v>77</v>
@@ -3982,16 +3844,16 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94" t="s">
-        <v>33</v>
+        <v>264</v>
       </c>
       <c r="B94" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C94" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D94" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="E94">
         <v>87</v>
@@ -3999,16 +3861,16 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95" t="s">
-        <v>33</v>
+        <v>264</v>
       </c>
       <c r="B95" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C95" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D95" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="E95">
         <v>97</v>
@@ -4016,16 +3878,16 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96" t="s">
-        <v>33</v>
+        <v>264</v>
       </c>
       <c r="B96" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C96" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D96" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="E96">
         <v>107</v>
@@ -4033,16 +3895,16 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97" t="s">
-        <v>33</v>
+        <v>264</v>
       </c>
       <c r="B97" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C97" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="D97" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="E97">
         <v>117</v>
@@ -4050,16 +3912,16 @@
     </row>
     <row r="98" spans="1:5">
       <c r="A98" t="s">
-        <v>33</v>
+        <v>264</v>
       </c>
       <c r="B98" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C98" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D98" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E98">
         <v>127</v>
@@ -4067,16 +3929,16 @@
     </row>
     <row r="99" spans="1:5">
       <c r="A99" t="s">
-        <v>33</v>
+        <v>264</v>
       </c>
       <c r="B99" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C99" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D99" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="E99">
         <v>137</v>
@@ -4084,16 +3946,16 @@
     </row>
     <row r="100" spans="1:5">
       <c r="A100" t="s">
-        <v>37</v>
+        <v>307</v>
       </c>
       <c r="B100" t="s">
+        <v>308</v>
+      </c>
+      <c r="C100" t="s">
+        <v>309</v>
+      </c>
+      <c r="D100" t="s">
         <v>310</v>
-      </c>
-      <c r="C100" t="s">
-        <v>311</v>
-      </c>
-      <c r="D100" t="s">
-        <v>312</v>
       </c>
       <c r="E100">
         <v>8</v>
@@ -4101,16 +3963,16 @@
     </row>
     <row r="101" spans="1:5">
       <c r="A101" t="s">
-        <v>37</v>
+        <v>307</v>
       </c>
       <c r="B101" t="s">
+        <v>311</v>
+      </c>
+      <c r="C101" t="s">
+        <v>312</v>
+      </c>
+      <c r="D101" t="s">
         <v>313</v>
-      </c>
-      <c r="C101" t="s">
-        <v>314</v>
-      </c>
-      <c r="D101" t="s">
-        <v>315</v>
       </c>
       <c r="E101">
         <v>18</v>
@@ -4118,16 +3980,16 @@
     </row>
     <row r="102" spans="1:5">
       <c r="A102" t="s">
-        <v>37</v>
+        <v>307</v>
       </c>
       <c r="B102" t="s">
+        <v>314</v>
+      </c>
+      <c r="C102" t="s">
+        <v>315</v>
+      </c>
+      <c r="D102" t="s">
         <v>316</v>
-      </c>
-      <c r="C102" t="s">
-        <v>317</v>
-      </c>
-      <c r="D102" t="s">
-        <v>318</v>
       </c>
       <c r="E102">
         <v>28</v>
@@ -4135,16 +3997,16 @@
     </row>
     <row r="103" spans="1:5">
       <c r="A103" t="s">
-        <v>37</v>
+        <v>307</v>
       </c>
       <c r="B103" t="s">
+        <v>317</v>
+      </c>
+      <c r="C103" t="s">
+        <v>318</v>
+      </c>
+      <c r="D103" t="s">
         <v>319</v>
-      </c>
-      <c r="C103" t="s">
-        <v>320</v>
-      </c>
-      <c r="D103" t="s">
-        <v>321</v>
       </c>
       <c r="E103">
         <v>38</v>
@@ -4152,16 +4014,16 @@
     </row>
     <row r="104" spans="1:5">
       <c r="A104" t="s">
-        <v>37</v>
+        <v>307</v>
       </c>
       <c r="B104" t="s">
+        <v>320</v>
+      </c>
+      <c r="C104" t="s">
+        <v>321</v>
+      </c>
+      <c r="D104" t="s">
         <v>322</v>
-      </c>
-      <c r="C104" t="s">
-        <v>323</v>
-      </c>
-      <c r="D104" t="s">
-        <v>324</v>
       </c>
       <c r="E104">
         <v>48</v>
@@ -4169,16 +4031,16 @@
     </row>
     <row r="105" spans="1:5">
       <c r="A105" t="s">
-        <v>37</v>
+        <v>307</v>
       </c>
       <c r="B105" t="s">
+        <v>323</v>
+      </c>
+      <c r="C105" t="s">
+        <v>324</v>
+      </c>
+      <c r="D105" t="s">
         <v>325</v>
-      </c>
-      <c r="C105" t="s">
-        <v>326</v>
-      </c>
-      <c r="D105" t="s">
-        <v>327</v>
       </c>
       <c r="E105">
         <v>58</v>
@@ -4186,16 +4048,16 @@
     </row>
     <row r="106" spans="1:5">
       <c r="A106" t="s">
-        <v>37</v>
+        <v>307</v>
       </c>
       <c r="B106" t="s">
+        <v>326</v>
+      </c>
+      <c r="C106" t="s">
+        <v>327</v>
+      </c>
+      <c r="D106" t="s">
         <v>328</v>
-      </c>
-      <c r="C106" t="s">
-        <v>329</v>
-      </c>
-      <c r="D106" t="s">
-        <v>330</v>
       </c>
       <c r="E106">
         <v>68</v>
@@ -4203,16 +4065,16 @@
     </row>
     <row r="107" spans="1:5">
       <c r="A107" t="s">
-        <v>37</v>
+        <v>307</v>
       </c>
       <c r="B107" t="s">
+        <v>329</v>
+      </c>
+      <c r="C107" t="s">
+        <v>330</v>
+      </c>
+      <c r="D107" t="s">
         <v>331</v>
-      </c>
-      <c r="C107" t="s">
-        <v>332</v>
-      </c>
-      <c r="D107" t="s">
-        <v>333</v>
       </c>
       <c r="E107">
         <v>78</v>
@@ -4220,16 +4082,16 @@
     </row>
     <row r="108" spans="1:5">
       <c r="A108" t="s">
-        <v>37</v>
+        <v>307</v>
       </c>
       <c r="B108" t="s">
+        <v>332</v>
+      </c>
+      <c r="C108" t="s">
+        <v>333</v>
+      </c>
+      <c r="D108" t="s">
         <v>334</v>
-      </c>
-      <c r="C108" t="s">
-        <v>335</v>
-      </c>
-      <c r="D108" t="s">
-        <v>336</v>
       </c>
       <c r="E108">
         <v>88</v>
@@ -4237,16 +4099,16 @@
     </row>
     <row r="109" spans="1:5">
       <c r="A109" t="s">
-        <v>37</v>
+        <v>307</v>
       </c>
       <c r="B109" t="s">
+        <v>335</v>
+      </c>
+      <c r="C109" t="s">
+        <v>336</v>
+      </c>
+      <c r="D109" t="s">
         <v>337</v>
-      </c>
-      <c r="C109" t="s">
-        <v>338</v>
-      </c>
-      <c r="D109" t="s">
-        <v>339</v>
       </c>
       <c r="E109">
         <v>98</v>
@@ -4254,16 +4116,16 @@
     </row>
     <row r="110" spans="1:5">
       <c r="A110" t="s">
-        <v>37</v>
+        <v>307</v>
       </c>
       <c r="B110" t="s">
+        <v>338</v>
+      </c>
+      <c r="C110" t="s">
+        <v>339</v>
+      </c>
+      <c r="D110" t="s">
         <v>340</v>
-      </c>
-      <c r="C110" t="s">
-        <v>341</v>
-      </c>
-      <c r="D110" t="s">
-        <v>342</v>
       </c>
       <c r="E110">
         <v>108</v>
@@ -4271,16 +4133,16 @@
     </row>
     <row r="111" spans="1:5">
       <c r="A111" t="s">
-        <v>37</v>
+        <v>307</v>
       </c>
       <c r="B111" t="s">
+        <v>341</v>
+      </c>
+      <c r="C111" t="s">
+        <v>342</v>
+      </c>
+      <c r="D111" t="s">
         <v>343</v>
-      </c>
-      <c r="C111" t="s">
-        <v>344</v>
-      </c>
-      <c r="D111" t="s">
-        <v>345</v>
       </c>
       <c r="E111">
         <v>118</v>
@@ -4288,16 +4150,16 @@
     </row>
     <row r="112" spans="1:5">
       <c r="A112" t="s">
-        <v>37</v>
+        <v>307</v>
       </c>
       <c r="B112" t="s">
+        <v>344</v>
+      </c>
+      <c r="C112" t="s">
+        <v>345</v>
+      </c>
+      <c r="D112" t="s">
         <v>346</v>
-      </c>
-      <c r="C112" t="s">
-        <v>347</v>
-      </c>
-      <c r="D112" t="s">
-        <v>348</v>
       </c>
       <c r="E112">
         <v>128</v>
@@ -4305,16 +4167,16 @@
     </row>
     <row r="113" spans="1:5">
       <c r="A113" t="s">
-        <v>37</v>
+        <v>307</v>
       </c>
       <c r="B113" t="s">
+        <v>347</v>
+      </c>
+      <c r="C113" t="s">
+        <v>348</v>
+      </c>
+      <c r="D113" t="s">
         <v>349</v>
-      </c>
-      <c r="C113" t="s">
-        <v>350</v>
-      </c>
-      <c r="D113" t="s">
-        <v>351</v>
       </c>
       <c r="E113">
         <v>138</v>
@@ -4322,16 +4184,16 @@
     </row>
     <row r="114" spans="1:5">
       <c r="A114" t="s">
-        <v>41</v>
+        <v>350</v>
       </c>
       <c r="B114" t="s">
+        <v>351</v>
+      </c>
+      <c r="C114" t="s">
         <v>352</v>
       </c>
-      <c r="C114" t="s">
+      <c r="D114" t="s">
         <v>353</v>
-      </c>
-      <c r="D114" t="s">
-        <v>354</v>
       </c>
       <c r="E114">
         <v>9</v>
@@ -4339,16 +4201,16 @@
     </row>
     <row r="115" spans="1:5">
       <c r="A115" t="s">
-        <v>41</v>
+        <v>350</v>
       </c>
       <c r="B115" t="s">
+        <v>354</v>
+      </c>
+      <c r="C115" t="s">
         <v>355</v>
       </c>
-      <c r="C115" t="s">
+      <c r="D115" t="s">
         <v>356</v>
-      </c>
-      <c r="D115" t="s">
-        <v>357</v>
       </c>
       <c r="E115">
         <v>19</v>
@@ -4356,16 +4218,16 @@
     </row>
     <row r="116" spans="1:5">
       <c r="A116" t="s">
-        <v>41</v>
+        <v>350</v>
       </c>
       <c r="B116" t="s">
+        <v>357</v>
+      </c>
+      <c r="C116" t="s">
         <v>358</v>
       </c>
-      <c r="C116" t="s">
+      <c r="D116" t="s">
         <v>359</v>
-      </c>
-      <c r="D116" t="s">
-        <v>360</v>
       </c>
       <c r="E116">
         <v>29</v>
@@ -4373,16 +4235,16 @@
     </row>
     <row r="117" spans="1:5">
       <c r="A117" t="s">
-        <v>41</v>
+        <v>350</v>
       </c>
       <c r="B117" t="s">
+        <v>360</v>
+      </c>
+      <c r="C117" t="s">
         <v>361</v>
       </c>
-      <c r="C117" t="s">
+      <c r="D117" t="s">
         <v>362</v>
-      </c>
-      <c r="D117" t="s">
-        <v>363</v>
       </c>
       <c r="E117">
         <v>39</v>
@@ -4390,16 +4252,16 @@
     </row>
     <row r="118" spans="1:5">
       <c r="A118" t="s">
-        <v>41</v>
+        <v>350</v>
       </c>
       <c r="B118" t="s">
+        <v>363</v>
+      </c>
+      <c r="C118" t="s">
         <v>364</v>
       </c>
-      <c r="C118" t="s">
+      <c r="D118" t="s">
         <v>365</v>
-      </c>
-      <c r="D118" t="s">
-        <v>366</v>
       </c>
       <c r="E118">
         <v>49</v>
@@ -4407,16 +4269,16 @@
     </row>
     <row r="119" spans="1:5">
       <c r="A119" t="s">
-        <v>41</v>
+        <v>350</v>
       </c>
       <c r="B119" t="s">
+        <v>366</v>
+      </c>
+      <c r="C119" t="s">
         <v>367</v>
       </c>
-      <c r="C119" t="s">
+      <c r="D119" t="s">
         <v>368</v>
-      </c>
-      <c r="D119" t="s">
-        <v>369</v>
       </c>
       <c r="E119">
         <v>59</v>
@@ -4424,16 +4286,16 @@
     </row>
     <row r="120" spans="1:5">
       <c r="A120" t="s">
-        <v>41</v>
+        <v>350</v>
       </c>
       <c r="B120" t="s">
+        <v>369</v>
+      </c>
+      <c r="C120" t="s">
         <v>370</v>
       </c>
-      <c r="C120" t="s">
+      <c r="D120" t="s">
         <v>371</v>
-      </c>
-      <c r="D120" t="s">
-        <v>372</v>
       </c>
       <c r="E120">
         <v>69</v>
@@ -4441,16 +4303,16 @@
     </row>
     <row r="121" spans="1:5">
       <c r="A121" t="s">
-        <v>41</v>
+        <v>350</v>
       </c>
       <c r="B121" t="s">
+        <v>372</v>
+      </c>
+      <c r="C121" t="s">
         <v>373</v>
       </c>
-      <c r="C121" t="s">
+      <c r="D121" t="s">
         <v>374</v>
-      </c>
-      <c r="D121" t="s">
-        <v>375</v>
       </c>
       <c r="E121">
         <v>79</v>
@@ -4458,16 +4320,16 @@
     </row>
     <row r="122" spans="1:5">
       <c r="A122" t="s">
-        <v>41</v>
+        <v>350</v>
       </c>
       <c r="B122" t="s">
+        <v>375</v>
+      </c>
+      <c r="C122" t="s">
         <v>376</v>
       </c>
-      <c r="C122" t="s">
+      <c r="D122" t="s">
         <v>377</v>
-      </c>
-      <c r="D122" t="s">
-        <v>378</v>
       </c>
       <c r="E122">
         <v>89</v>
@@ -4475,16 +4337,16 @@
     </row>
     <row r="123" spans="1:5">
       <c r="A123" t="s">
-        <v>41</v>
+        <v>350</v>
       </c>
       <c r="B123" t="s">
+        <v>378</v>
+      </c>
+      <c r="C123" t="s">
         <v>379</v>
       </c>
-      <c r="C123" t="s">
+      <c r="D123" t="s">
         <v>380</v>
-      </c>
-      <c r="D123" t="s">
-        <v>381</v>
       </c>
       <c r="E123">
         <v>99</v>
@@ -4492,16 +4354,16 @@
     </row>
     <row r="124" spans="1:5">
       <c r="A124" t="s">
-        <v>41</v>
+        <v>350</v>
       </c>
       <c r="B124" t="s">
+        <v>381</v>
+      </c>
+      <c r="C124" t="s">
         <v>382</v>
       </c>
-      <c r="C124" t="s">
+      <c r="D124" t="s">
         <v>383</v>
-      </c>
-      <c r="D124" t="s">
-        <v>384</v>
       </c>
       <c r="E124">
         <v>109</v>
@@ -4509,16 +4371,16 @@
     </row>
     <row r="125" spans="1:5">
       <c r="A125" t="s">
-        <v>41</v>
+        <v>350</v>
       </c>
       <c r="B125" t="s">
+        <v>384</v>
+      </c>
+      <c r="C125" t="s">
         <v>385</v>
       </c>
-      <c r="C125" t="s">
+      <c r="D125" t="s">
         <v>386</v>
-      </c>
-      <c r="D125" t="s">
-        <v>387</v>
       </c>
       <c r="E125">
         <v>119</v>
@@ -4526,16 +4388,16 @@
     </row>
     <row r="126" spans="1:5">
       <c r="A126" t="s">
-        <v>41</v>
+        <v>350</v>
       </c>
       <c r="B126" t="s">
+        <v>387</v>
+      </c>
+      <c r="C126" t="s">
         <v>388</v>
       </c>
-      <c r="C126" t="s">
+      <c r="D126" t="s">
         <v>389</v>
-      </c>
-      <c r="D126" t="s">
-        <v>390</v>
       </c>
       <c r="E126">
         <v>129</v>
@@ -4543,24 +4405,24 @@
     </row>
     <row r="127" spans="1:5">
       <c r="A127" t="s">
-        <v>41</v>
+        <v>350</v>
       </c>
       <c r="B127" t="s">
+        <v>390</v>
+      </c>
+      <c r="C127" t="s">
         <v>391</v>
       </c>
-      <c r="C127" t="s">
+      <c r="D127" t="s">
         <v>392</v>
-      </c>
-      <c r="D127" t="s">
-        <v>393</v>
       </c>
       <c r="E127">
         <v>139</v>
       </c>
     </row>
-    <row r="128" spans="1:5">
+    <row r="128" hidden="1" spans="1:5">
       <c r="A128" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B128" t="s">
         <v>7</v>
@@ -4575,9 +4437,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:5">
+    <row r="129" hidden="1" spans="1:5">
       <c r="A129" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B129" t="s">
         <v>10</v>
@@ -4592,2121 +4454,2198 @@
         <v>11</v>
       </c>
     </row>
-    <row r="130" spans="1:5">
+    <row r="130" hidden="1" spans="1:5">
       <c r="A130" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B130" t="s">
+        <v>13</v>
+      </c>
+      <c r="C130" t="s">
         <v>14</v>
       </c>
-      <c r="C130" t="s">
+      <c r="D130" t="s">
         <v>15</v>
-      </c>
-      <c r="D130" t="s">
-        <v>16</v>
       </c>
       <c r="E130">
         <v>21</v>
       </c>
     </row>
-    <row r="131" spans="1:5">
+    <row r="131" hidden="1" spans="1:5">
       <c r="A131" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B131" t="s">
+        <v>16</v>
+      </c>
+      <c r="C131" t="s">
+        <v>17</v>
+      </c>
+      <c r="D131" t="s">
         <v>18</v>
-      </c>
-      <c r="C131" t="s">
-        <v>19</v>
-      </c>
-      <c r="D131" t="s">
-        <v>20</v>
       </c>
       <c r="E131">
         <v>31</v>
       </c>
     </row>
-    <row r="132" spans="1:5">
+    <row r="132" hidden="1" spans="1:5">
       <c r="A132" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B132" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C132" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D132" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E132">
         <v>41</v>
       </c>
     </row>
-    <row r="133" spans="1:5">
+    <row r="133" hidden="1" spans="1:5">
       <c r="A133" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B133" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C133" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D133" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E133">
         <v>51</v>
       </c>
     </row>
-    <row r="134" spans="1:5">
+    <row r="134" hidden="1" spans="1:5">
       <c r="A134" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B134" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C134" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D134" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E134">
         <v>61</v>
       </c>
     </row>
-    <row r="135" spans="1:5">
+    <row r="135" hidden="1" spans="1:5">
       <c r="A135" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B135" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C135" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D135" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E135">
         <v>71</v>
       </c>
     </row>
-    <row r="136" spans="1:5">
+    <row r="136" hidden="1" spans="1:5">
       <c r="A136" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B136" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C136" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D136" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="E136">
         <v>81</v>
       </c>
     </row>
-    <row r="137" spans="1:5">
+    <row r="137" hidden="1" spans="1:5">
       <c r="A137" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B137" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C137" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D137" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="E137">
         <v>91</v>
       </c>
     </row>
-    <row r="138" spans="1:5">
+    <row r="138" hidden="1" spans="1:5">
       <c r="A138" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B138" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C138" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D138" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="E138">
         <v>101</v>
       </c>
     </row>
-    <row r="139" spans="1:5">
+    <row r="139" hidden="1" spans="1:5">
       <c r="A139" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B139" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C139" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D139" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="E139">
         <v>111</v>
       </c>
     </row>
-    <row r="140" spans="1:5">
+    <row r="140" hidden="1" spans="1:5">
       <c r="A140" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B140" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C140" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D140" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="E140">
         <v>121</v>
       </c>
     </row>
-    <row r="141" spans="1:5">
+    <row r="141" hidden="1" spans="1:5">
       <c r="A141" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B141" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C141" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D141" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="E141">
         <v>131</v>
       </c>
     </row>
-    <row r="142" spans="1:5">
+    <row r="142" hidden="1" spans="1:5">
       <c r="A142" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B142" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C142" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="D142" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="E142">
         <v>2</v>
       </c>
     </row>
-    <row r="143" spans="1:5">
+    <row r="143" hidden="1" spans="1:5">
       <c r="A143" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B143" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C143" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="D143" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="E143">
         <v>12</v>
       </c>
     </row>
-    <row r="144" spans="1:5">
+    <row r="144" hidden="1" spans="1:5">
       <c r="A144" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B144" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="C144" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="D144" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="E144">
         <v>22</v>
       </c>
     </row>
-    <row r="145" spans="1:5">
+    <row r="145" hidden="1" spans="1:5">
       <c r="A145" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B145" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C145" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="D145" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="E145">
         <v>32</v>
       </c>
     </row>
-    <row r="146" spans="1:5">
+    <row r="146" hidden="1" spans="1:5">
       <c r="A146" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B146" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C146" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="D146" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="E146">
         <v>42</v>
       </c>
     </row>
-    <row r="147" spans="1:5">
+    <row r="147" hidden="1" spans="1:5">
       <c r="A147" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B147" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C147" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="D147" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="E147">
         <v>52</v>
       </c>
     </row>
-    <row r="148" spans="1:5">
+    <row r="148" hidden="1" spans="1:5">
       <c r="A148" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B148" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C148" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="D148" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="E148">
         <v>62</v>
       </c>
     </row>
-    <row r="149" spans="1:5">
+    <row r="149" hidden="1" spans="1:5">
       <c r="A149" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B149" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C149" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="D149" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="E149">
         <v>72</v>
       </c>
     </row>
-    <row r="150" spans="1:5">
+    <row r="150" hidden="1" spans="1:5">
       <c r="A150" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B150" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C150" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="D150" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E150">
         <v>82</v>
       </c>
     </row>
-    <row r="151" spans="1:5">
+    <row r="151" hidden="1" spans="1:5">
       <c r="A151" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B151" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C151" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="D151" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="E151">
         <v>92</v>
       </c>
     </row>
-    <row r="152" spans="1:5">
+    <row r="152" hidden="1" spans="1:5">
       <c r="A152" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B152" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C152" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="D152" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="E152">
         <v>102</v>
       </c>
     </row>
-    <row r="153" spans="1:5">
+    <row r="153" hidden="1" spans="1:5">
       <c r="A153" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B153" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C153" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="D153" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="E153">
         <v>112</v>
       </c>
     </row>
-    <row r="154" spans="1:5">
+    <row r="154" hidden="1" spans="1:5">
       <c r="A154" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B154" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C154" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D154" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="E154">
         <v>122</v>
       </c>
     </row>
-    <row r="155" spans="1:5">
+    <row r="155" hidden="1" spans="1:5">
       <c r="A155" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B155" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C155" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="D155" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="E155">
         <v>132</v>
       </c>
     </row>
-    <row r="156" spans="1:5">
+    <row r="156" hidden="1" spans="1:5">
       <c r="A156" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B156" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C156" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="D156" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="E156">
         <v>3</v>
       </c>
     </row>
-    <row r="157" spans="1:5">
+    <row r="157" hidden="1" spans="1:5">
       <c r="A157" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B157" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C157" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="D157" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="E157">
         <v>13</v>
       </c>
     </row>
-    <row r="158" spans="1:5">
+    <row r="158" hidden="1" spans="1:5">
       <c r="A158" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B158" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="C158" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="D158" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="E158">
         <v>23</v>
       </c>
     </row>
-    <row r="159" spans="1:5">
+    <row r="159" hidden="1" spans="1:5">
       <c r="A159" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B159" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="C159" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="D159" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="E159">
         <v>33</v>
       </c>
     </row>
-    <row r="160" spans="1:5">
+    <row r="160" hidden="1" spans="1:5">
       <c r="A160" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B160" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="C160" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="D160" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="E160">
         <v>43</v>
       </c>
     </row>
-    <row r="161" spans="1:5">
+    <row r="161" hidden="1" spans="1:5">
       <c r="A161" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B161" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="C161" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="D161" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="E161">
         <v>53</v>
       </c>
     </row>
-    <row r="162" spans="1:5">
+    <row r="162" hidden="1" spans="1:5">
       <c r="A162" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B162" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="C162" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="D162" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="E162">
         <v>63</v>
       </c>
     </row>
-    <row r="163" spans="1:5">
+    <row r="163" hidden="1" spans="1:5">
       <c r="A163" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B163" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="C163" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="D163" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="E163">
         <v>73</v>
       </c>
     </row>
-    <row r="164" spans="1:5">
+    <row r="164" hidden="1" spans="1:5">
       <c r="A164" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B164" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C164" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="D164" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="E164">
         <v>83</v>
       </c>
     </row>
-    <row r="165" spans="1:5">
+    <row r="165" hidden="1" spans="1:5">
       <c r="A165" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B165" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="C165" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="D165" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="E165">
         <v>93</v>
       </c>
     </row>
-    <row r="166" spans="1:5">
+    <row r="166" hidden="1" spans="1:5">
       <c r="A166" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B166" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="C166" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="D166" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E166">
         <v>103</v>
       </c>
     </row>
-    <row r="167" spans="1:5">
+    <row r="167" hidden="1" spans="1:5">
       <c r="A167" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B167" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="C167" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="D167" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="E167">
         <v>113</v>
       </c>
     </row>
-    <row r="168" spans="1:5">
+    <row r="168" hidden="1" spans="1:5">
       <c r="A168" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B168" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="C168" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="D168" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="E168">
         <v>123</v>
       </c>
     </row>
-    <row r="169" spans="1:5">
+    <row r="169" hidden="1" spans="1:5">
       <c r="A169" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B169" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="C169" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="D169" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="E169">
         <v>133</v>
       </c>
     </row>
-    <row r="170" spans="1:5">
+    <row r="170" hidden="1" spans="1:5">
       <c r="A170" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B170" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="C170" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="D170" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="E170">
         <v>4</v>
       </c>
     </row>
-    <row r="171" spans="1:5">
+    <row r="171" hidden="1" spans="1:5">
       <c r="A171" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B171" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C171" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="D171" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="E171">
         <v>14</v>
       </c>
     </row>
-    <row r="172" spans="1:5">
+    <row r="172" hidden="1" spans="1:5">
       <c r="A172" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B172" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="C172" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="D172" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="E172">
         <v>24</v>
       </c>
     </row>
-    <row r="173" spans="1:5">
+    <row r="173" hidden="1" spans="1:5">
       <c r="A173" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B173" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="C173" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="D173" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="E173">
         <v>34</v>
       </c>
     </row>
-    <row r="174" spans="1:5">
+    <row r="174" hidden="1" spans="1:5">
       <c r="A174" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B174" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="C174" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="D174" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="E174">
         <v>44</v>
       </c>
     </row>
-    <row r="175" spans="1:5">
+    <row r="175" hidden="1" spans="1:5">
       <c r="A175" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B175" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="C175" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="D175" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="E175">
         <v>54</v>
       </c>
     </row>
-    <row r="176" spans="1:5">
+    <row r="176" hidden="1" spans="1:5">
       <c r="A176" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B176" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C176" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="D176" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="E176">
         <v>64</v>
       </c>
     </row>
-    <row r="177" spans="1:5">
+    <row r="177" hidden="1" spans="1:5">
       <c r="A177" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B177" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C177" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D177" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="E177">
         <v>74</v>
       </c>
     </row>
-    <row r="178" spans="1:5">
+    <row r="178" hidden="1" spans="1:5">
       <c r="A178" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B178" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="C178" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="D178" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E178">
         <v>84</v>
       </c>
     </row>
-    <row r="179" spans="1:5">
+    <row r="179" hidden="1" spans="1:5">
       <c r="A179" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B179" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C179" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="D179" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="E179">
         <v>94</v>
       </c>
     </row>
-    <row r="180" spans="1:5">
+    <row r="180" hidden="1" spans="1:5">
       <c r="A180" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B180" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="C180" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="D180" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="E180">
         <v>104</v>
       </c>
     </row>
-    <row r="181" spans="1:5">
+    <row r="181" hidden="1" spans="1:5">
       <c r="A181" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B181" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="C181" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="D181" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="E181">
         <v>114</v>
       </c>
     </row>
-    <row r="182" spans="1:5">
+    <row r="182" hidden="1" spans="1:5">
       <c r="A182" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B182" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="C182" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="D182" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="E182">
         <v>124</v>
       </c>
     </row>
-    <row r="183" spans="1:5">
+    <row r="183" hidden="1" spans="1:5">
       <c r="A183" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B183" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="C183" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="D183" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="E183">
         <v>134</v>
       </c>
     </row>
-    <row r="184" spans="1:5">
+    <row r="184" hidden="1" spans="1:5">
       <c r="A184" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B184" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="C184" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="D184" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="E184">
         <v>5</v>
       </c>
     </row>
-    <row r="185" spans="1:5">
+    <row r="185" hidden="1" spans="1:5">
       <c r="A185" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B185" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C185" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="D185" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="E185">
         <v>15</v>
       </c>
     </row>
-    <row r="186" spans="1:5">
+    <row r="186" hidden="1" spans="1:5">
       <c r="A186" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B186" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C186" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="D186" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="E186">
         <v>25</v>
       </c>
     </row>
-    <row r="187" spans="1:5">
+    <row r="187" hidden="1" spans="1:5">
       <c r="A187" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B187" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C187" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D187" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="E187">
         <v>35</v>
       </c>
     </row>
-    <row r="188" spans="1:5">
+    <row r="188" hidden="1" spans="1:5">
       <c r="A188" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B188" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="C188" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="D188" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="E188">
         <v>45</v>
       </c>
     </row>
-    <row r="189" spans="1:5">
+    <row r="189" hidden="1" spans="1:5">
       <c r="A189" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B189" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="C189" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="D189" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="E189">
         <v>55</v>
       </c>
     </row>
-    <row r="190" spans="1:5">
+    <row r="190" hidden="1" spans="1:5">
       <c r="A190" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B190" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C190" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="D190" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="E190">
         <v>65</v>
       </c>
     </row>
-    <row r="191" spans="1:5">
+    <row r="191" hidden="1" spans="1:5">
       <c r="A191" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B191" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="C191" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D191" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="E191">
         <v>75</v>
       </c>
     </row>
-    <row r="192" spans="1:5">
+    <row r="192" hidden="1" spans="1:5">
       <c r="A192" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B192" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C192" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="D192" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="E192">
         <v>85</v>
       </c>
     </row>
-    <row r="193" spans="1:5">
+    <row r="193" hidden="1" spans="1:5">
       <c r="A193" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B193" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C193" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="D193" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="E193">
         <v>95</v>
       </c>
     </row>
-    <row r="194" spans="1:5">
+    <row r="194" hidden="1" spans="1:5">
       <c r="A194" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B194" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="C194" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="D194" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="E194">
         <v>105</v>
       </c>
     </row>
-    <row r="195" spans="1:5">
+    <row r="195" hidden="1" spans="1:5">
       <c r="A195" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B195" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C195" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="D195" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="E195">
         <v>115</v>
       </c>
     </row>
-    <row r="196" spans="1:5">
+    <row r="196" hidden="1" spans="1:5">
       <c r="A196" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B196" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C196" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="D196" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="E196">
         <v>125</v>
       </c>
     </row>
-    <row r="197" spans="1:5">
+    <row r="197" hidden="1" spans="1:5">
       <c r="A197" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B197" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="C197" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="D197" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="E197">
         <v>135</v>
       </c>
     </row>
-    <row r="198" spans="1:5">
+    <row r="198" hidden="1" spans="1:5">
       <c r="A198" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B198" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C198" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="D198" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="E198">
         <v>6</v>
       </c>
     </row>
-    <row r="199" spans="1:5">
+    <row r="199" hidden="1" spans="1:5">
       <c r="A199" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B199" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C199" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="D199" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="E199">
         <v>16</v>
       </c>
     </row>
-    <row r="200" spans="1:5">
+    <row r="200" hidden="1" spans="1:5">
       <c r="A200" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B200" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C200" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="D200" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E200">
         <v>26</v>
       </c>
     </row>
-    <row r="201" spans="1:5">
+    <row r="201" hidden="1" spans="1:5">
       <c r="A201" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B201" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C201" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D201" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="E201">
         <v>36</v>
       </c>
     </row>
-    <row r="202" spans="1:5">
+    <row r="202" hidden="1" spans="1:5">
       <c r="A202" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B202" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C202" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D202" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="E202">
         <v>46</v>
       </c>
     </row>
-    <row r="203" spans="1:5">
+    <row r="203" hidden="1" spans="1:5">
       <c r="A203" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B203" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C203" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D203" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="E203">
         <v>56</v>
       </c>
     </row>
-    <row r="204" spans="1:5">
+    <row r="204" hidden="1" spans="1:5">
       <c r="A204" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B204" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C204" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="D204" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="E204">
         <v>66</v>
       </c>
     </row>
-    <row r="205" spans="1:5">
+    <row r="205" hidden="1" spans="1:5">
       <c r="A205" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B205" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C205" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="D205" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="E205">
         <v>76</v>
       </c>
     </row>
-    <row r="206" spans="1:5">
+    <row r="206" hidden="1" spans="1:5">
       <c r="A206" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B206" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C206" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="D206" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="E206">
         <v>86</v>
       </c>
     </row>
-    <row r="207" spans="1:5">
+    <row r="207" hidden="1" spans="1:5">
       <c r="A207" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B207" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C207" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="D207" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="E207">
         <v>96</v>
       </c>
     </row>
-    <row r="208" spans="1:5">
+    <row r="208" hidden="1" spans="1:5">
       <c r="A208" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B208" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="C208" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D208" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="E208">
         <v>106</v>
       </c>
     </row>
-    <row r="209" spans="1:5">
+    <row r="209" hidden="1" spans="1:5">
       <c r="A209" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B209" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C209" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="D209" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="E209">
         <v>116</v>
       </c>
     </row>
-    <row r="210" spans="1:5">
+    <row r="210" hidden="1" spans="1:5">
       <c r="A210" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B210" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C210" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="D210" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="E210">
         <v>126</v>
       </c>
     </row>
-    <row r="211" spans="1:5">
+    <row r="211" hidden="1" spans="1:5">
       <c r="A211" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B211" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C211" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D211" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="E211">
         <v>136</v>
       </c>
     </row>
-    <row r="212" spans="1:5">
+    <row r="212" hidden="1" spans="1:5">
       <c r="A212" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B212" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C212" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D212" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E212">
         <v>7</v>
       </c>
     </row>
-    <row r="213" spans="1:5">
+    <row r="213" hidden="1" spans="1:5">
       <c r="A213" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B213" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C213" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D213" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="E213">
         <v>17</v>
       </c>
     </row>
-    <row r="214" spans="1:5">
+    <row r="214" hidden="1" spans="1:5">
       <c r="A214" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B214" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C214" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D214" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E214">
         <v>27</v>
       </c>
     </row>
-    <row r="215" spans="1:5">
+    <row r="215" hidden="1" spans="1:5">
       <c r="A215" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B215" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C215" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D215" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E215">
         <v>37</v>
       </c>
     </row>
-    <row r="216" spans="1:5">
+    <row r="216" hidden="1" spans="1:5">
       <c r="A216" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B216" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C216" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D216" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="E216">
         <v>47</v>
       </c>
     </row>
-    <row r="217" spans="1:5">
+    <row r="217" hidden="1" spans="1:5">
       <c r="A217" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B217" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C217" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D217" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="E217">
         <v>57</v>
       </c>
     </row>
-    <row r="218" spans="1:5">
+    <row r="218" hidden="1" spans="1:5">
       <c r="A218" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B218" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C218" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D218" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="E218">
         <v>67</v>
       </c>
     </row>
-    <row r="219" spans="1:5">
+    <row r="219" hidden="1" spans="1:5">
       <c r="A219" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B219" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C219" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D219" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="E219">
         <v>77</v>
       </c>
     </row>
-    <row r="220" spans="1:5">
+    <row r="220" hidden="1" spans="1:5">
       <c r="A220" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B220" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C220" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D220" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="E220">
         <v>87</v>
       </c>
     </row>
-    <row r="221" spans="1:5">
+    <row r="221" hidden="1" spans="1:5">
       <c r="A221" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B221" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C221" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D221" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="E221">
         <v>97</v>
       </c>
     </row>
-    <row r="222" spans="1:5">
+    <row r="222" hidden="1" spans="1:5">
       <c r="A222" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B222" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C222" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D222" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="E222">
         <v>107</v>
       </c>
     </row>
-    <row r="223" spans="1:5">
+    <row r="223" hidden="1" spans="1:5">
       <c r="A223" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B223" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C223" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="D223" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="E223">
         <v>117</v>
       </c>
     </row>
-    <row r="224" spans="1:5">
+    <row r="224" hidden="1" spans="1:5">
       <c r="A224" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B224" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C224" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D224" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E224">
         <v>127</v>
       </c>
     </row>
-    <row r="225" spans="1:5">
+    <row r="225" hidden="1" spans="1:5">
       <c r="A225" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B225" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C225" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D225" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="E225">
         <v>137</v>
       </c>
     </row>
-    <row r="226" spans="1:5">
+    <row r="226" hidden="1" spans="1:5">
       <c r="A226" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B226" t="s">
+        <v>308</v>
+      </c>
+      <c r="C226" t="s">
+        <v>309</v>
+      </c>
+      <c r="D226" t="s">
         <v>310</v>
-      </c>
-      <c r="C226" t="s">
-        <v>311</v>
-      </c>
-      <c r="D226" t="s">
-        <v>312</v>
       </c>
       <c r="E226">
         <v>8</v>
       </c>
     </row>
-    <row r="227" spans="1:5">
+    <row r="227" hidden="1" spans="1:5">
       <c r="A227" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B227" t="s">
+        <v>311</v>
+      </c>
+      <c r="C227" t="s">
+        <v>312</v>
+      </c>
+      <c r="D227" t="s">
         <v>313</v>
-      </c>
-      <c r="C227" t="s">
-        <v>314</v>
-      </c>
-      <c r="D227" t="s">
-        <v>315</v>
       </c>
       <c r="E227">
         <v>18</v>
       </c>
     </row>
-    <row r="228" spans="1:5">
+    <row r="228" hidden="1" spans="1:5">
       <c r="A228" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B228" t="s">
+        <v>314</v>
+      </c>
+      <c r="C228" t="s">
+        <v>315</v>
+      </c>
+      <c r="D228" t="s">
         <v>316</v>
-      </c>
-      <c r="C228" t="s">
-        <v>317</v>
-      </c>
-      <c r="D228" t="s">
-        <v>318</v>
       </c>
       <c r="E228">
         <v>28</v>
       </c>
     </row>
-    <row r="229" spans="1:5">
+    <row r="229" hidden="1" spans="1:5">
       <c r="A229" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B229" t="s">
+        <v>317</v>
+      </c>
+      <c r="C229" t="s">
+        <v>318</v>
+      </c>
+      <c r="D229" t="s">
         <v>319</v>
-      </c>
-      <c r="C229" t="s">
-        <v>320</v>
-      </c>
-      <c r="D229" t="s">
-        <v>321</v>
       </c>
       <c r="E229">
         <v>38</v>
       </c>
     </row>
-    <row r="230" spans="1:5">
+    <row r="230" hidden="1" spans="1:5">
       <c r="A230" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B230" t="s">
+        <v>320</v>
+      </c>
+      <c r="C230" t="s">
+        <v>321</v>
+      </c>
+      <c r="D230" t="s">
         <v>322</v>
-      </c>
-      <c r="C230" t="s">
-        <v>323</v>
-      </c>
-      <c r="D230" t="s">
-        <v>324</v>
       </c>
       <c r="E230">
         <v>48</v>
       </c>
     </row>
-    <row r="231" spans="1:5">
+    <row r="231" hidden="1" spans="1:5">
       <c r="A231" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B231" t="s">
+        <v>323</v>
+      </c>
+      <c r="C231" t="s">
+        <v>324</v>
+      </c>
+      <c r="D231" t="s">
         <v>325</v>
-      </c>
-      <c r="C231" t="s">
-        <v>326</v>
-      </c>
-      <c r="D231" t="s">
-        <v>327</v>
       </c>
       <c r="E231">
         <v>58</v>
       </c>
     </row>
-    <row r="232" spans="1:5">
+    <row r="232" hidden="1" spans="1:5">
       <c r="A232" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B232" t="s">
+        <v>326</v>
+      </c>
+      <c r="C232" t="s">
+        <v>327</v>
+      </c>
+      <c r="D232" t="s">
         <v>328</v>
-      </c>
-      <c r="C232" t="s">
-        <v>329</v>
-      </c>
-      <c r="D232" t="s">
-        <v>330</v>
       </c>
       <c r="E232">
         <v>68</v>
       </c>
     </row>
-    <row r="233" spans="1:5">
+    <row r="233" hidden="1" spans="1:5">
       <c r="A233" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B233" t="s">
+        <v>329</v>
+      </c>
+      <c r="C233" t="s">
+        <v>330</v>
+      </c>
+      <c r="D233" t="s">
         <v>331</v>
-      </c>
-      <c r="C233" t="s">
-        <v>332</v>
-      </c>
-      <c r="D233" t="s">
-        <v>333</v>
       </c>
       <c r="E233">
         <v>78</v>
       </c>
     </row>
-    <row r="234" spans="1:5">
+    <row r="234" hidden="1" spans="1:5">
       <c r="A234" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B234" t="s">
+        <v>332</v>
+      </c>
+      <c r="C234" t="s">
+        <v>333</v>
+      </c>
+      <c r="D234" t="s">
         <v>334</v>
-      </c>
-      <c r="C234" t="s">
-        <v>335</v>
-      </c>
-      <c r="D234" t="s">
-        <v>336</v>
       </c>
       <c r="E234">
         <v>88</v>
       </c>
     </row>
-    <row r="235" spans="1:5">
+    <row r="235" hidden="1" spans="1:5">
       <c r="A235" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B235" t="s">
+        <v>335</v>
+      </c>
+      <c r="C235" t="s">
+        <v>336</v>
+      </c>
+      <c r="D235" t="s">
         <v>337</v>
-      </c>
-      <c r="C235" t="s">
-        <v>338</v>
-      </c>
-      <c r="D235" t="s">
-        <v>339</v>
       </c>
       <c r="E235">
         <v>98</v>
       </c>
     </row>
-    <row r="236" spans="1:5">
+    <row r="236" hidden="1" spans="1:5">
       <c r="A236" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B236" t="s">
+        <v>338</v>
+      </c>
+      <c r="C236" t="s">
+        <v>339</v>
+      </c>
+      <c r="D236" t="s">
         <v>340</v>
-      </c>
-      <c r="C236" t="s">
-        <v>341</v>
-      </c>
-      <c r="D236" t="s">
-        <v>342</v>
       </c>
       <c r="E236">
         <v>108</v>
       </c>
     </row>
-    <row r="237" spans="1:5">
+    <row r="237" hidden="1" spans="1:5">
       <c r="A237" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B237" t="s">
+        <v>341</v>
+      </c>
+      <c r="C237" t="s">
+        <v>342</v>
+      </c>
+      <c r="D237" t="s">
         <v>343</v>
-      </c>
-      <c r="C237" t="s">
-        <v>344</v>
-      </c>
-      <c r="D237" t="s">
-        <v>345</v>
       </c>
       <c r="E237">
         <v>118</v>
       </c>
     </row>
-    <row r="238" spans="1:5">
+    <row r="238" hidden="1" spans="1:5">
       <c r="A238" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B238" t="s">
+        <v>344</v>
+      </c>
+      <c r="C238" t="s">
+        <v>345</v>
+      </c>
+      <c r="D238" t="s">
         <v>346</v>
-      </c>
-      <c r="C238" t="s">
-        <v>347</v>
-      </c>
-      <c r="D238" t="s">
-        <v>348</v>
       </c>
       <c r="E238">
         <v>128</v>
       </c>
     </row>
-    <row r="239" spans="1:5">
+    <row r="239" hidden="1" spans="1:5">
       <c r="A239" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B239" t="s">
+        <v>347</v>
+      </c>
+      <c r="C239" t="s">
+        <v>348</v>
+      </c>
+      <c r="D239" t="s">
         <v>349</v>
-      </c>
-      <c r="C239" t="s">
-        <v>350</v>
-      </c>
-      <c r="D239" t="s">
-        <v>351</v>
       </c>
       <c r="E239">
         <v>138</v>
       </c>
     </row>
-    <row r="240" spans="1:5">
+    <row r="240" hidden="1" spans="1:5">
       <c r="A240" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B240" t="s">
+        <v>351</v>
+      </c>
+      <c r="C240" t="s">
         <v>352</v>
       </c>
-      <c r="C240" t="s">
+      <c r="D240" t="s">
         <v>353</v>
-      </c>
-      <c r="D240" t="s">
-        <v>354</v>
       </c>
       <c r="E240">
         <v>9</v>
       </c>
     </row>
-    <row r="241" spans="1:5">
+    <row r="241" hidden="1" spans="1:5">
       <c r="A241" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B241" t="s">
+        <v>354</v>
+      </c>
+      <c r="C241" t="s">
         <v>355</v>
       </c>
-      <c r="C241" t="s">
+      <c r="D241" t="s">
         <v>356</v>
-      </c>
-      <c r="D241" t="s">
-        <v>357</v>
       </c>
       <c r="E241">
         <v>19</v>
       </c>
     </row>
-    <row r="242" spans="1:5">
+    <row r="242" hidden="1" spans="1:5">
       <c r="A242" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B242" t="s">
+        <v>357</v>
+      </c>
+      <c r="C242" t="s">
         <v>358</v>
       </c>
-      <c r="C242" t="s">
+      <c r="D242" t="s">
         <v>359</v>
-      </c>
-      <c r="D242" t="s">
-        <v>360</v>
       </c>
       <c r="E242">
         <v>29</v>
       </c>
     </row>
-    <row r="243" spans="1:5">
+    <row r="243" hidden="1" spans="1:5">
       <c r="A243" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B243" t="s">
+        <v>360</v>
+      </c>
+      <c r="C243" t="s">
         <v>361</v>
       </c>
-      <c r="C243" t="s">
+      <c r="D243" t="s">
         <v>362</v>
-      </c>
-      <c r="D243" t="s">
-        <v>363</v>
       </c>
       <c r="E243">
         <v>39</v>
       </c>
     </row>
-    <row r="244" spans="1:5">
+    <row r="244" hidden="1" spans="1:5">
       <c r="A244" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B244" t="s">
+        <v>363</v>
+      </c>
+      <c r="C244" t="s">
         <v>364</v>
       </c>
-      <c r="C244" t="s">
+      <c r="D244" t="s">
         <v>365</v>
-      </c>
-      <c r="D244" t="s">
-        <v>366</v>
       </c>
       <c r="E244">
         <v>49</v>
       </c>
     </row>
-    <row r="245" spans="1:5">
+    <row r="245" hidden="1" spans="1:5">
       <c r="A245" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B245" t="s">
+        <v>366</v>
+      </c>
+      <c r="C245" t="s">
         <v>367</v>
       </c>
-      <c r="C245" t="s">
+      <c r="D245" t="s">
         <v>368</v>
-      </c>
-      <c r="D245" t="s">
-        <v>369</v>
       </c>
       <c r="E245">
         <v>59</v>
       </c>
     </row>
-    <row r="246" spans="1:5">
+    <row r="246" hidden="1" spans="1:5">
       <c r="A246" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B246" t="s">
+        <v>369</v>
+      </c>
+      <c r="C246" t="s">
         <v>370</v>
       </c>
-      <c r="C246" t="s">
+      <c r="D246" t="s">
         <v>371</v>
-      </c>
-      <c r="D246" t="s">
-        <v>372</v>
       </c>
       <c r="E246">
         <v>69</v>
       </c>
     </row>
-    <row r="247" spans="1:5">
+    <row r="247" hidden="1" spans="1:5">
       <c r="A247" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B247" t="s">
+        <v>372</v>
+      </c>
+      <c r="C247" t="s">
         <v>373</v>
       </c>
-      <c r="C247" t="s">
+      <c r="D247" t="s">
         <v>374</v>
-      </c>
-      <c r="D247" t="s">
-        <v>375</v>
       </c>
       <c r="E247">
         <v>79</v>
       </c>
     </row>
-    <row r="248" spans="1:5">
+    <row r="248" hidden="1" spans="1:5">
       <c r="A248" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B248" t="s">
+        <v>375</v>
+      </c>
+      <c r="C248" t="s">
         <v>376</v>
       </c>
-      <c r="C248" t="s">
+      <c r="D248" t="s">
         <v>377</v>
-      </c>
-      <c r="D248" t="s">
-        <v>378</v>
       </c>
       <c r="E248">
         <v>89</v>
       </c>
     </row>
-    <row r="249" spans="1:5">
+    <row r="249" hidden="1" spans="1:5">
       <c r="A249" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B249" t="s">
+        <v>378</v>
+      </c>
+      <c r="C249" t="s">
         <v>379</v>
       </c>
-      <c r="C249" t="s">
+      <c r="D249" t="s">
         <v>380</v>
-      </c>
-      <c r="D249" t="s">
-        <v>381</v>
       </c>
       <c r="E249">
         <v>99</v>
       </c>
     </row>
-    <row r="250" spans="1:5">
+    <row r="250" hidden="1" spans="1:5">
       <c r="A250" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B250" t="s">
+        <v>381</v>
+      </c>
+      <c r="C250" t="s">
         <v>382</v>
       </c>
-      <c r="C250" t="s">
+      <c r="D250" t="s">
         <v>383</v>
-      </c>
-      <c r="D250" t="s">
-        <v>384</v>
       </c>
       <c r="E250">
         <v>109</v>
       </c>
     </row>
-    <row r="251" spans="1:5">
+    <row r="251" hidden="1" spans="1:5">
       <c r="A251" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B251" t="s">
+        <v>384</v>
+      </c>
+      <c r="C251" t="s">
         <v>385</v>
       </c>
-      <c r="C251" t="s">
+      <c r="D251" t="s">
         <v>386</v>
-      </c>
-      <c r="D251" t="s">
-        <v>387</v>
       </c>
       <c r="E251">
         <v>119</v>
       </c>
     </row>
-    <row r="252" spans="1:5">
+    <row r="252" hidden="1" spans="1:5">
       <c r="A252" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B252" t="s">
+        <v>387</v>
+      </c>
+      <c r="C252" t="s">
         <v>388</v>
       </c>
-      <c r="C252" t="s">
+      <c r="D252" t="s">
         <v>389</v>
-      </c>
-      <c r="D252" t="s">
-        <v>390</v>
       </c>
       <c r="E252">
         <v>129</v>
       </c>
     </row>
-    <row r="253" spans="1:5">
+    <row r="253" hidden="1" spans="1:5">
       <c r="A253" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B253" t="s">
+        <v>390</v>
+      </c>
+      <c r="C253" t="s">
         <v>391</v>
       </c>
-      <c r="C253" t="s">
+      <c r="D253" t="s">
         <v>392</v>
-      </c>
-      <c r="D253" t="s">
-        <v>393</v>
       </c>
       <c r="E253">
         <v>139</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:E139">
-    <sortCondition ref="A2:A139"/>
-  </sortState>
-  <mergeCells count="1">
-    <mergeCell ref="I18:Q33"/>
-  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:A10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J34" sqref="J34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P14" sqref="P14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
